--- a/deuChatbot/research_result/results/rouge_score/rouge_version_2(3000_500).xlsx
+++ b/deuChatbot/research_result/results/rouge_score/rouge_version_2(3000_500).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F204"/>
+  <dimension ref="A1:F305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7485,79 +7485,4202 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GPT-4o-mini Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험은 주로 시각디자인, 산업디자인, 공예디자인 세 분야에서 이루어집니다. 각 분야는 두 가지 종목 중 하나를 선택하여 응시하게 됩니다:
+1. 기초디자인
+2. 사고의 전환
+기본적인 정보는 다음과 같습니다:
+- **모집단위**: 시각디자인 / 산업디자인 / 공예디자인
+- **실기종목**: 선택 종목 (기초디자인 또는 사고의 전환)
+- **배점 비율**: 700점 중 70% (즉, 490점)
+**기본 준비물 및 주제**:
+- **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- **실기주제**: 주제A와 주제B 중에서 각각 하나를 선택하여 연결된 주제로 응시
+**주의사항**:
+- 제공된 사물과 이미지 이외의 형상은 표현하지 마세요.
+- 제공된 사물은 모두 1회 이상 표현해야 합니다.
+- 제공된 사물의 색상은 변경하지 마세요.
+**화지 크기 및 시간**:
+- **화지크기**: 켄트지 3절
+- **시간**: 5시간
+이러한 정보를 바탕으로 각 분야별로 준비하는 것이 중요합니다. 특히 주제 선택과 표현 방식에 대한 철저한 계획을 세우는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.4222776267739863</v>
+        <v>0.5561139028475712</v>
       </c>
       <c r="E202" t="n">
-        <v>0.2877355726234804</v>
+        <v>0.3260504201680672</v>
       </c>
       <c r="F202" t="n">
-        <v>0.3722149100047927</v>
+        <v>0.4020100502512562</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Google Gemma-2-9b-it Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기 종목은 다음과 같습니다:
+1. **실기종목**:
+   - 기초디자인
+   - 사고의 전환
+2. **준비물**:
+   - 볼펜
+   - 연필
+   - 색연필
+   - 수채물감 등 표현에 필요한 도구
+3. **실기주제**:
+   - 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+   - 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+4. **화지크기**:
+   - 켄트지3절
+5. **시험기간**:
+   - 5시간
+이러한 준비물을 가지고 주제A와 주제B 중 각각 한 가지를 선택하여 연결된 주제를 당일 추첨을 통해 결정합니다.</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.2862687847032409</v>
+        <v>0.5012048192771084</v>
       </c>
       <c r="E203" t="n">
-        <v>0.1303105983504895</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="F203" t="n">
-        <v>0.2238578460551425</v>
+        <v>0.4240963855421686</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에 대한 정보는 다음과 같습니다:
+1. 배드민턴(남)의 인정대회:
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국학교대항배드민턴선수권대회
+   - 전국종별배드민턴선수권대회
+   - 전국연맹종별배드민턴선수권대회
+   - 전국체육대회
+   - various international tournaments (only those where the team is a member of the national or junior teams are recognized)
+   - 광역시·도 협회장기 종별대회
+2. 축구(남)의 인정대회:
+   - Chunghwa Korea High School Football Federation Spring Tournament
+   - Korea High School Football Federation Autumn Tournament
+   - KFA Cup National High School Football Championship
+   - Minister of Culture, Sports and Tourism Cup National High School Football Championship
+   - Minister of Culture, Sports and Tourism Cup National High School Football Championship
+   - Baekwon Cup National High School Football Championship
+   - Korea High School Football League (Regional High School Football League)
+   - Korea High School Football League King of the Hill Tournament
+   - Muok Cup National High School Football Championship
+   - Dragon Tiger Cup National High School Football Championship
+   - Baegrok Cup National High School Football Championship
+   - Geumgangda Cup National High School Football Championship
+   - President's Gold Cup National High School Football Championship
+   - Jinseok Cup National High School Football Championship
+   - Busan MBC National High School Football Championship
+   - K League U18 Champions League
+   - K League U18 Champions League King of the Hill Tournament
+이러한 대회들 중에서 해당 종목과 관련된 대회만 인정받을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.3829787234042554</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.2348754448398576</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.3581560283687943</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B 각각에서 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시 주제들은 다음과 같습니다:
+주제A:
+- 잠자리
+- 무궁화
+- 피망 (파프리카)
+- 고양이 
+- 양파
+- 달팽이
+- 오렌지
+주제B:
+- 콜라병
+- 포카리스웨트(캔)
+- 마스크
+- 시계
+- 맥가이버 칼
+- 바이러스
+- 자유
+- 여행
+- 계절
+- 꿈
+당일에는 이 중에서 각각 1개씩 추첨하여 연결된 주제를 사용하게 됩니다. 준비물과 화지 크기는 켄트지 3절이며, 시간은 5시간입니다.</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.5132743362831859</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.3035714285714286</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.3982300884955753</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2024학년도부터 학생부교과 전형에서 출결 점수가 반영됩니다. 이전에는 출결이 포함되지 않았으나, 변경된 요소 중 하나로 출결이 18%와 12%의 비율로 반영되게 되었습니다.
+예를 들어:
+- 실기/실적(경기실적우수자전형)에서는 학생부교과가 18%, 출결이 12%, 서류(실적)가 70%로 반영됩니다.
+- 학생부종합(조기취업형계약학과전형)에서는 서류(학생부)가 60%, 면접이 40%로 되어 있었으나, 변경된 전형요소 반영비율은 서류(학생부)가 60%, 면접이 40%에서 출결도 포함하여 학생부교과가 18%, 출결이 12%, 서류(실적)가 70%로 변경되었습니다.
+따라서, 2024학년도부터는 출결 점수가 학생부교과 전형에서 반영됩니다.</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0.1297297297297297</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.0546448087431694</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.1189189189189189</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>2024학년도 인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로는 9명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.8292682926829269</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.7692307692307692</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.8292682926829269</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+관련 정보:
+- 단과대학: 인문사회과학대학
+- 계열: 인문사회
+- 모집단위: 영어영문학과 - 교직 
+- 모집인원: 28명
+이 정보는 "다군 수능(일반학생전형) 모집단위 및 모집인원" 섹션에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.3181818181818182</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.2500000000000001</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 - 교직 - 간호교육인증의 나군 일반 학생 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.4444444444444445</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.2790697674418604</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.4444444444444445</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>以下是按照韩语提供的英语等级对应的分数：
+- 等级1，分数139
+- 等级2，分数131
+- 等级3，分数123
+- 等级4，分数115
+- 等级5，分数107
+- 等级6，分数99
+- 等级7，分数91
+- 等级8，分数83
+- 等级9，分数75</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.4153846153846154</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.140625</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.4153846153846154</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>2024년 경희대학교의 나군 학생부교과 농어촌학생전형에 대해, 예술고 학생이 지원 가능 여부는 명확히 언급되어 있지 않습니다. 그러나 일반적으로 다음과 같은 점들을 고려해볼 수 있습니다:
+1. **전형 특성**: 나군 학생부교과 농어촌학생전형은 주로 인문사회계열의 학과에 대해 개방되어 있으며, 예술고 졸업자도 지원이 가능합니다.
+2. **학과 선택**: 예술고 졸업자는 예술디자인체육대학의 관련 학과(예: 디자인조형학과)나 공과대학의 ICT융합공과대학에서 컴퓨터공학과, 인공지능학과 등에 지원할 수 있습니다.
+3. **서류 및 면접**: 예술고 졸업자는 일반 고등학교 졸업생과 마찬가지로 학교생활기록부와 서류를 제출해야 합니다. 면접에서도 자신의 창의성과 전공적합성을 강조할 수 있습니다.
+4. **문서 확인**: 최종적인 지원 가능 여부는 경희대학교 입학처에서 제공하는 공식 안내사항을 참고하거나, 직접 문의하여 확인하는 것이 가장 정확합니다.
+따라서 예술고 졸업자도 나군 학생부교과 농어촌학생전형에 지원이 가능할 것으로 보이나, 특정 학과에 대한 지원 가능성은 입학처에서 최종 결정합니다.</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.2474226804123711</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.1038062283737024</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.1580756013745704</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 272～275 cm이며, 배점은 300점입니다.
+이 정보는 제공된 레저스포츠학과 기록별 배점표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.4411764705882353</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.2121212121212121</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.3529411764705882</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경기지도학과에서는 나군 실기/실적(경기실적우수자전형) 모집단위에서 출결의 반영 비율이 12%입니다.
+출처: 
+- 전형요소 반영비율에서 전형명은 나군 실기/실적(경기실적우수자전형)이며, 모집단위은 경기지도학과이며, 전형요소 반영비율의 출결은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.1136363636363636</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>1</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 있습니다. 
+관련 정보는 다음과 같습니다:
+- **전형명**: 나군 실기/실적(일반학생전형)
+- **모집단위**: 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)
+- **일정**: 2024년 1월 17일(수)
+이 날짜는 실기고사 일정으로 정해져 있습니다.</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0.1020408163265306</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0.1020408163265306</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 2024학년도 응용화학과의 수능 최저기준에 대한 직접적인 정보는 없습니다. 그러나 다른 관련 정보를 통해 추론할 수 있습니다.
+1. **전형 유형**: 응용화학과는 일반적으로 공과대학에 속하며, 전형 유형은 대체로 수능 위주입니다.
+2. **수능 반영 영역 및 가산점**:
+   - 국어(25%)
+   - 수학(25%)
+   - 영어(25%)
+   - 탐구(25%)
+3. **가산점**: 
+   - 수학(미적분 또는 기하) 응시자: 수학 표준점수의 10% 가산점
+4. **성적 산출 방법**:
+   - 국어 + 수학 + 영어 등급점수 + 탐구 표준점수
+   - (수학(미적분 또는 기하) 응시자는 수학 표준점수 x 0.1 가산)
+5. **모집단위별 특징**:
+   - 공과대학의 모집단위는 일반적으로 수능 점수가 높은 편입니다.
+   - 응용화학과도 이에 해당할 가능성이 높습니다.
+따라서, 동의대학교 2024학년도 응용화학과의 수능 최저기준을 추정하기 위해서는:
+- **국어**: 평균적인 국어 점수를 고려해야 합니다.
+- **수학**: 공과대학 특성상 높은 수학 점수가 필요할 것으로 예상됩니다. (예: 80점 이상)
+- **영어**: 대체로 중간 이상의 영어 등급을 요구합니다. (예: 4등급 이상)
+- **탐구**: 탐구 과목에서 좋은 성적을 받는 것이 중요합니다.
+**결론적으로**, 동의대학교 응용화학과의 수능 최저기준은 대체로 국어, 수학, 영어 등급, 탐구 중간 이상의 점수를 요구할 것으로 예상됩니다. 정확한 최저기준을 확인하려면 동의대학교 공식 홈페이지나 입학처에 직접 문의하는 것이 가장 확실합니다.</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>0.03428571428571429</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0.01724137931034483</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0.02857142857142857</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과는 다음과 같습니다:
+1. 미래융합대학 라이프융합학부 - 신설 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+2. IT융합부품소재공과대학 미래형자동차학과
+3. ICT공과대학 소프트웨어융합학과
+이러한 신설 학과들은 각각의 계열(인문사회, 공학)에 속해 있으며, 새로운 분야를 탐구하고 발전시키기 위한 교육 프로그램을 제공하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.5419354838709677</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.4444444444444445</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.4387096774193548</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류: 70%
+- 면접: 30%
+이 비율로 지원자의 학업역량과 전공적합성을 평가하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.6506024096385543</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.4691358024691358</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0.6265060240963856</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 수학(미적분 또는 기하) 응시자에게 수능 가산점을 부여합니다. 
+특히, 다음과 같은 모집단위에서 수능 가산점이 적용됩니다:
+- 의료·보건·생활대학, 공과대학, ICT융합공과대학 모집단위
+따라서, 해당 학과에서 수학(미적분 또는 기하)을 응시한 지원자는 수학 표준점수에 10%의 가산점을 받게 됩니다.</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.4477611940298508</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0.6029411764705883</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서는 전 모집단위에 대해 다음과 같이 수능 성적을 반영합니다:
+- 국어(화법과작문 또는 언어와매체): 25%
+- 수학(확률과통계 또는 미적분 또는 기하): 25%
+- 영어: 25%
+- 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합): 25%
+이렇게 각 영역별로 25%씩 반영되며, 총점은 이들 점수의 합으로 계산됩니다.</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.2406015037593985</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.07633587786259542</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0.1954887218045112</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사 날짜는 다음과 같습니다:
+- 레저스포츠학과 (제자리 멀리뛰기, Z-런): 2024. 01. 16.(화)
+- 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과: 2024. 01. 17.(수)
+이 날짜들 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.2790697674418605</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0.119047619047619</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0.2558139534883721</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형) 전형에서 디자인조형학과와 체육학과는 실기/실적 위주로 평가받으므로, 이 두 모집단위는 일반 학생전형에서는 제외됩니다.
+즉, 나군 수능(일반학생전형)에서는 디자인조형학과와 체육학과는 포함되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.5319148936170212</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.3695652173913043</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0.4468085106382979</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다.
+참조된 정보 중 "수능최저기준은 수능최저기준 없음"이라는 문구가有多余的信息，关键信息如下：
+- 多军（다군）普通入学考试型（일반학생전형）：
+  - 所有招生单位均无最低录取标准要求。
+因此，可以确定2024年 Dongeui大学多军普通入学考试型没有设置任何科目或总分的最低分数线。</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.4444444444444445</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0.4444444444444445</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+위와 같이 2024학년도 동의대학교에서는 여러 학과가 학부에서 학과로 분리되었습니다.</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.7837398373983739</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.730831973898858</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0.7447154471544716</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2024학년도 동국대학교 일반학생전형의 원서접수 마감일은 2023년 11월 7일입니다.</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.5500000000000002</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0.5500000000000002</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 주요 전형 요소 변화는 다음과 같습니다:
+1. **나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)**:
+   - **전형요소 반영비율**이 변경되었습니다.
+     - 학생부종합(평생학습자전형): 서류 70%, 면접 30%
+     - 학생부종합(성인학습자(정원내·외)전형): 서류 70%, 면접 30%
+     - 학생부종합(재직자전형): 서류 70%, 면접 30%
+2. **나군 학생부교과(농어촌학생전형)**:
+   - **최대선발 가능인원**이 일부 모집단위에서 변경되었습니다.
+     - 중어중국학과 - 교직: 최대 4명 이내
+     - 일본학과 - 교직: 최대 3명 이내
+     - 심리학과 - 신설: 최대 3명 이내
+     - 아동학과: 최대 3명 이내
+이러한 변화는 각 전형의 평가 기준 및 절차에 영향을 미칠 수 있으므로, 지원자들은 변경 사항을 주의 깊게 확인하고 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.3059805285118219</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.08926080892608089</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0.1974965229485396</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서는 실기가 70%의 비중을 차지합니다.
+이 정보는 "가군 수능(일반학생전형), 실기/실적(일반학생전형) 전형요소 반영비율" 섹션에서 확인할 수 있습니다. 해당 내용은:
+- 가군 실기/실적(일반학생전형)의 모집단위는 레저스포츠학과, 태권도학과입니다.
+- 이들의 전형요소 반영비율의 수능은 30%이고, 실기는 70%입니다.
+따라서 가군 실기/실적 전형에서 실기고사는 전체 점수 중 70%를 차지합니다.</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.2388059701492537</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0.1515151515151515</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0.208955223880597</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 다음과 같은 세부 전공으로 구성되어 있습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학
+- 라이프생활문화학
+这三个专业共同构成了新的Life Fusion Department。</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.5569620253164557</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0.691358024691358</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과 (실기종목: 제자리 멀리뛰기, Z-런)
+2. 태권도학과
+이 두 학과만 가군에서 실기고사가 요구됩니다. 다른 학과들은 수능 성적을 기반으로 선발합니다.</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.4946236559139785</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0.3736263736263736</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0.4516129032258066</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형을 지원할 수 있는 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 경기지도학과 (신설)
+4. 패션디자인학과 - 교직
+이러한 학과들은 전형요소 반영비율에서 실기가 중요한 비중을 차지하고 있습니다:
+- 레저스포츠학과: 실기 70%, 수능 30%
+- 태권도학과: 실기 70%, 수능 30%
+- 경기지도학과 (신설): 실기 70%, 수능 30%
+- 패션디자인학과 - 교직: 실기 70%, 수능 30%
+따라서, 실기/실적 위주 전형을 지원하려는 경우 위의 학과 중에서 선택하여 지원하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.4171122994652406</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0.3135135135135135</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0.3957219251336898</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 미래융합대학에서 신설된 라이프융합학부는 다음과 같은 세 가지 전공을 제공합니다:
+1. 스타트업 창업 투자학
+2. 뷰티 비즈니스학 
+3. 라이프 생활 문화학
+이 학부는 학생부종합전형으로 모집되며, 정원 내 모집인원은 20명입니다.
+- 나군의 일반 학생 모집 인원: 11명
+- 나군의 평생 학습자 모집 인원: 11명
+이 정보는 제공된 문헌에서 확인되었습니다.</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.4592592592592593</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.2706766917293233</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0.3555555555555555</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생도 동의대학교 일반학생전형에 지원이 가능합니다. 
+특수목적고등학교 중 과학고, 국제고, 외국어고는 모두 지원이 가능하며, 예술고와 체육고도 지원이 가능합니다.
+따라서, 특수목적고등학교의 학생이라면 동의대학교의 가군(일반학생전형)이나 나군(실기/실적 전형 또는 학생부종합 전형 등)으로 지원할 수 있습니다. 다만, 각 전형별로 모집단위와 지원 자격 조건이 다르므로, 해당 전형의 세부 사항을 확인하시고 지원하시면 됩니다.
+더 궁금한 점이 있으면 추가 질문 부탁드립니다!</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.3592814371257486</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0.2060606060606061</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0.251497005988024</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 파악하기 위해서는 각 학과별 정원 내 모집 인원을 비교해야 합니다. 제공된 정보를 바탕으로, 다음과 같은 결론을 도출할 수 있습니다:
+1. **공과대학** 관련 학과들이 많은 인원을 모집하고 있습니다:
+   - 로봇자동화공학과: 42명
+   - 자동차공학과: 37명
+   - 조선해양공학과: 36명
+   - 신소재공학과: 52명
+   - 고분자나노공학과: 32명
+2. **인문사회과학대학** 관련 학과들도 꽤 많은 인원을 모집하고 있습니다:
+   - 법학과: 2명
+   - 영어영문학과(교직): 28명
+3. **상경대학** 관련 학과들 역시 많은 인원을 모집하고 있습니다:
+   - 경영정보학과: 7명
+   - e비즈니스학과: 10명
+4. **ICT융합공과대학** 관련 학과들도 꽤 많은 인원을 모집하고 있습니다:
+   - 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학): 45명
+이 중에서 가장 많이 모집하는 학과는 **신소재공학과**로, 정원 내 모집 인원이 52명으로 가장 많습니다. 이외에도 로봇자동화공학과(42명), 경영정보학과(7명), e비즈니스학과(10명) 등도 많은 인원을 모집하고 있습니다.
+따라서, 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **신소재공학과**로 판단할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0.1691842900302115</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0.09726443768996959</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0.1389728096676737</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>你是特教高中学生，可以申请동义大学的学生部课程（农村学生选拔）。
+根据提供的信息，东义大学的“나군 학생부교과(농어촌학생전형)”招生条件如下：
+- 招生对象包括科学高中、国际高中和外语高中的毕业生。
+- 特教高中不在明确列出的支持学校类型中。
+但是，从你提供的信息来看，“특수목적고”（特教高中）并不在“특수목적고등학교의 과학고, 국제고, 외국어고”（科学高中、国际高中和外语高中的特教高中）的列表中。因此，根据现有信息，特教高中学生似乎不符合东义大学农村学生选拔的学生部课程申请资格。
+建议你直接访问东义大学官方网站或联系招生办公室以确认最新的招生政策和具体要求，因为政策可能会有所变化。你可以参考以下链接获取更多信息：https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0.3529411764705882</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 수능(일반학생전형) 최종등록자의 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.87
+- 영어 등급의 평균: 3.77
+- 수능 4개 영역 등급의 평균: 4.49
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 434.70
+이 중에서 가장 중요한 것은 **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**의 평균 점수가 **317.87**이라는 것입니다.</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.1375</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0.07594936708860761</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 수능 최초합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다.</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.2777777777777777</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>ippsi.deu.ac.kr 웹사이트를 참조해보시는 것이 가장 정확한 정보를 얻는 방법일 것입니다. 일반적으로 대학의 입학처 웹사이트에서는 합격자 발표 일정과 관련된 공지를 게재하므로, 해당 사이트에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.08955223880597014</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0.0303030303030303</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0.08955223880597014</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>2024년 1월 17일(수)에 &lt;나&gt;군 실기고사를 치르는 날입니다. 이날에는 대기실 및 입실 시간 안내를 받으시기 위해 2024년 1월 12일(금) 14:00 이후에 입학안내 홈페이지에서 확인하시면 됩니다.
+따라서 면접고사는 2024년 1월 17일(수)에 보러 가셔야 합니다.</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0.2018348623853211</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0.03738317757009346</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0.1467889908256881</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 명확한 한의예과의 최저학력 기준 정보가 제공되지 않았습니다. 일반적으로 한의예과의 경우 고등학교 졸업 자격이 필요하며, 일부 대학에서는 특정 과목 성적이나 학생부 평가를 요구할 수 있습니다.
+하지만, 2024학년도에 대한 특별한 최저학력 기준 정보가 제공되지 않았기 때문에, 일반적인 고등학교 졸업 자격을 갖추는 것이 필수이며, 추가적인 학생부 평가나 과목 성적 요구사항은 대학마다 다를 수 있습니다.
+더 정확한 정보를 얻으시려면 해당 대학의 공식 입학 안내 웹사이트 또는 입학처와 직접 문의해보는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>0.1230769230769231</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0.07812500000000001</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0.1230769230769231</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2024학년도 정시모집의 경우, 전형별로 수능 최저학력 기준이 다르게 설정되어 있습니다. 
+1. **수능 위주 전형**:
+   - 가군 수능(일반학생전형): 모든 모집단위에 대해 수능 최저기준 없음
+   - 나군 수능(일반학생전형): 모든 모집단위에 대해 수능 최저기준 없음
+   - 다군 수능(일반학생전형): 모든 모집단위에 대해 수능 최저기준 없음
+2. **실기/실적 위주 전형**:
+   - 가군 실기/실적(일반학생전형): 레저스포츠학과, 태권도학과에서 수능 최저기준 없음
+   - 나군 실기/실적(일반학생전형): 디자인조형학과, 체육학과에서 수능 최저기준 없음
+   - 다군 실기/실적(일반학생전형): 경기지도학과에서 수능 최저기준 없음
+3. **학생부교과 전형**:
+   - 나군 학생부교과(농어촌학생전형) - 정원외: 수능 최저기준 없음
+   - 나군 학생부교과(평생학습자전형): 수능 최저기준 없음
+   - 나군 학생부교과(성인학습자(정원내)전형): 수능 최저기준 없음
+   - 나군 학생부교과(성인학습자(정원외)전형 - 정원외): 수능 최저기준 없음
+   - 나군 학생부종합(재직자전형) - 정원외: 수능 최저기준 없음
+   - 나군 학생부종합(재직자전형) - 정원외: 수능 최저기준 없음
+   - 나군 학생부종합(조기취업형계약학과전형) - 정원외: 수능 최저기준 없음
+따라서, 2024학년도 정시모집에서 대부분의 전형은 수능 최저학력 기준이 없습니다. 단, 일부 특별한 경우에만 수능 최저학력 기준을 설정하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>0.04046242774566474</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0.03488372093023255</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0.04046242774566474</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>충원합격자는 다음과 같은 일정에 따라 발표됩니다:
+1. 충원 합격자 1차 발표 및 등록:
+   - 일시: 2024년 2월 14일(수) 09:00
+   - 내용: 인터넷으로 발표
+2. 충원 합격자 1차 등록:
+   - 일시: 2024년 2월 14일(수) 09:00~16:00
+3. 충원 합격자 2차 발표 및 등록:
+   - 일시: 2024년 2월 15일(목) 09:00
+   - 내용: 인터넷으로 발표
+4. 충원 합격자 2차 등록:
+   - 일시: 2024년 2월 15일(목) 09:00~16:00
+5. 충원 합격자 3차 이후 발표 및 등록:
+   - 일시: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+   - 방법: 개별 전화 통보
+이러한 일정에 따라 충원 합격자 발표 및 등록이 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.5327868852459016</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0.371900826446281</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0.4672131147540984</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2024학년도 추가합격자 발표 일정은 다음과 같습니다:
+- 충원 합격자 1차 발표: 2024. 02. 14.(수) 09:00
+- 충원 합격자 1차 등록: 2024. 02. 14.(수) 09:00~16:00
+- 충원 합격자 2차 발표: 2024. 02. 15.(목) 09:00
+- 충원 합격자 2차 등록: 2024. 02. 15.(목) 09:00~16:00
+따라서 추가합격자 발표는 2월 14일과 15일에 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.5529411764705883</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0.2857142857142858</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0.3647058823529412</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到是否进行额外招生（추가모집）。为了确认是否有额外招生计划，建议访问以下网站获取最新信息：
+https://ipsi.deu.ac.kr/main.do
+该网站通常会发布最新的招生政策和计划。如果有任何疑问或需要更详细的信息，也可以通过该网站提供的联系方式咨询学校相关部门。</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.05714285714285715</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0.02941176470588236</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0.05714285714285715</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 대학입시에서 평생교육을 받은 학습자를 위한 특별한 전형입니다. 주요 내용은 다음과 같습니다:
+1. 모집단위 및 모집인원:
+   - 미래융합대학 인문사회 계열 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학): 34명
+   - 기타 여러 학과: 각각의 모집인원은 위에서 나열된 대로 다릅니다.
+2. 지원자격:
+   - 국가·지방자치단체 및 공공단체 소속 직원
+   - 상시근로자 5인 이상 사업체 근로자 (4대 보험 가입)
+   - 3년 이상 재직 기간
+3. 전형요소 반영비율:
+   - 서류: 70%
+   - 면접: 30%
+4. 제출서류:
+   - 고교 졸업(예정)자: 학교생활기록부
+   - 검정고시 출신자: 검정고시 합격증, 성적증명서 (학교생활기록부 대체 가능)
+   - 외국고교 졸업(예정)자: 공증받은 외국고교 증명서 및 성적증명서
+5. 서류평가 영역:
+   - 공동체역량
+   - 학업역량
+   - 전공적합성
+6. 동점자 처리기준:
+   - 면접고사 성적 상위자
+   - 서류평가 공동체역량 영역 성적 상위자
+   - 서류평가 전공적합성 영역 성적 상위자
+   - 교과 성적 상위자
+이러한 정보를 바탕으로 평생학습자전형에 대한 자세한 내용을 확인하시려면 공식 홈페이지 (https://ipsi.deu.ac.kr/main.do)를 참조해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.4191279887482419</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0.1748942172073343</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0.270042194092827</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 산업체 적용 범위:
+   - 국가·지방자치단체 및 공공단체(소속 직원의 경우)
+   - 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체
+   - 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+2. 재직기간 산정:
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+   - 재직기간은 제출한 지원 자격 증빙서류 상으로 증명되는 기간만 산정
+   - 2개 이상의 산업체에 재직한 경우 총 재직기간은 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않음
+   - 군 의무복무 경력도 재직기간으로 인정함
+이러한 자격 요건을 충족해야 평생학습자전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0.1393034825870647</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0.09045226130653265</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.1393034825870647</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사는 해당 학과에 따라不同的的，给定答案需要具体化。根据提供的信息，不同专业（如设计造型学、体育学等）有不同的实考地点。通常情况下，具体的考试地点会在学校官网或招生简章中详细说明。
+例如：
+- 设计造型学专业的实考地点会在2024年1月17日公布。
+- 体育学专业的实考地点也会在同一天公布。
+建议您访问学校官方网站（如http://ipsi.deu.ac.kr）查看最新的招生信息和考试安排，以获取准确的实考地点和其他详细信息。</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 구성되어 있습니다:
+1. 모집단위는 체육학과입니다.
+2. 실기종목은 두 가지가 있으며, 각각의 배점 비율은:
+   - 제자리 멀리뛰기는 240점 (24%)
+   - 메디신볼 던지기는 230점 (23%)
+   - Z-런은 230점 (23%)
+따라서, 체육학과의 학생들은 이 세 가지 실기종목 중 하나를 선택하여 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.1166666666666667</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0.01694915254237288</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>一般来说，学校会在公布补招合格名单后通过电话通知被录取的学生。但是具体的通知方式可能会因学校而异。建议您查看学校的官方网站或招生简章中的相关说明，或者直接联系学校的招生办公室确认具体的联系方式和流程。
+如果您不确定，可以访问以下网站获取更多信息：https://ipsi.deu.ac.kr/main.do
+这样您可以更准确地了解学校的录取通知方式。</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보는 제공된 데이터에서 직접적으로 확인할 수 없습니다. 하지만, 2024학년도의 모집 상황을 통해 2023학년도의 대략적인 추세를 예측할 수 있습니다.
+2024학년도 경찰행정학과의 모집 정보는 다음과 같습니다:
+- **모집인원**: 7명
+- **지원인원**: 29명
+- **경쟁률**: 4.14
+이 정보를 바탕으로, 2023학년도 경찰행정학과의 수시모집 결과가 매우 유사했을 가능성이 높습니다. 지원자들이 많았음에도 불구하고 모집인원은 적어 경쟁률이 높았던 것으로 추정됩니다.
+확실한 정보를 얻기 위해서는 공식 입학처 웹사이트 (https://ipsi.deu.ac.kr/main.do) 또는 관련 부서에 직접 문의하는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.2433862433862434</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0.1904761904761905</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2024학년도 입학전형에서 일부 전형에서는 수능 응시 여부와 관계없이 지원이 가능합니다. 예를 들어, 학생부종합 평가 등은 수능을 응시하지 않아도 지원할 수 있는 전형입니다.
+특히 주요 변경사항 중에 다음과 같은 내용이 있습니다:
+- **학생부종합(평생학습자전형/성인학습자전형/재직자전형)**: 이 전형은 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자를 대상으로 하고 있습니다. 수능 응시 여부와 관계없이 지원이 가능합니다.
+따라서, 수능을 응시하지 않아도 해당 전형을 통해 지원할 수 있습니다. 하지만 다른 전형들은 수능 점수를 반영하기 때문에 수능 응시는 유리한 경우가 많습니다. 자세한 내용은 입학처 홈페이지나 공지사항을 확인하시거나 직접 문의하시는 것이 좋겠습니다.
+[입학처 홈페이지 링크](https://ipsi.deu.ac.kr/main.do)를 통해 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0.03030303030303031</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2024학년도에 적용되는 정시모집 변경사항을 보면, 성인학습자전형(정원내/외)이나 재직자전형 등 일부 전형에서 고등학교 졸업 후 3년 이상 재직한 자를 대상으로 하고 있습니다. 따라서, 고등학교 졸업한지 10년이 지났다면, 해당하는 전형에 지원 가능할 수 있습니다.
+특히, 다음과 같은 전형을 참고하실 수 있습니다:
+- **학생부종합(성인학습자전형)**: 이 전형은 고등학교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자를 대상으로 합니다. 따라서, 고등학교 졸업 후 10년이 지났다면 해당됩니다.
+- **재직자전형**: 이 전형은 산업체에서 재직 중인 자를 대상으로 하며, 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 합니다. 따라서, 고등학교 졸업 후 10년 동안 재직한 경력이 있다면 해당됩니다.
+따라서, 정시 지원 가능성을 확인하기 위해서는 각 전형의 자격요건을 체크하시고, 해당하는 전형에 지원해보시는 것이 좋습니다. 자세한 내용은 [동의대학교 입학처 웹사이트](https://ipsi.deu.ac.kr/main.do)를 참조하시거나, 학교 입학처로 문의하시는 것을 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0.2054794520547945</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0.06206896551724138</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0.1095890410958904</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시모집 일정을 요약하면 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024년 1월 2일 (화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 기간: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토), 마감시간은 각 날짜별로 오후 6시까지
+   - 참고 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출**:
+   - 기간: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금), 마감시간은 오후 5시까지 도착
+   - 서류 제출 대상: (IV. 전형별 세부 안내 참조)
+   - 제출 방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**:
+   - 날짜: 2024년 1월 16일 (화)
+   - 비고: 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 오후 2시 이후 입학안내 홈페이지에서 확인
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**:
+   - 날짜: 2024년 1월 17일 (수)
+   - 비고: 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 오후 2시 이후 입학안내 홈페이지에서 확인
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 오후 2시
+     - 발표: 홈페이지에서 개별 조회
+     - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 2월 13일 (화), 은행마감시간 내
+     - 발표: 홈페이지에서 개별 조회
+     - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 발표 및 등록: 
+     - 날짜: 2024년 2월 14일 (수) 오전 9시
+       - 발표: 홈페이지에서 개별 조회
+       - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+       - 등록장소: 학교 지정은행(등록금 고지서에 기재)
+     - 날짜: 2024년 2월 14일 (수) 오전 9시 ~ 오후 4시
+   - 충원 합격자 2차 발표 및 등록:
+     - 날짜: 2024년 2월 15일 (목) 오전 9시
+       - 발표: 홈페이지에서 개별 조회
+       - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+       - 등록장소: 학교 지정은행(등록금 고지서에 기재)
+     - 날짜: 2024년 2월 15일 (목) 오전 9시 ~ 오후 4시
+   - 충원 합격자 3차 이후 발표 및 등록:
+     - 날짜: 2024년 2월 15일 (목) 오후 7시 ~ 2024년 2월 20일 (화) 오후 6시까지
+       - 발표: 홈페이지에서 개별 조회
+       - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+       - 등록장소: 학교 지정은행(등록금 고지서에 기재)
+이 일정들은 동의대학교 2024학년도 정시모집의 주요 내용을 포함하고 있으며, 각 단계별로 필요한 준비와 절차를 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.7076502732240437</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0.548563611491108</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0.6489071038251365</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024. 01. 02.(화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 시작일: 2024. 01. 03.(수)
+   - 마감일: 2024. 01. 06.(토) 18시까지
+   - 참고 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출 (제출서류가 있는 경우)**:
+   - 시작일: 2024. 01. 03.(수)
+   - 마감일: 2024. 01. 12.(금) 17시까지 도착
+   - 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법 : 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사 레저스포츠학과 태권도학과**:
+   - 날짜: 2024. 01. 16.(화)
+   - 비고: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과**:
+   - 날짜: 2024. 01. 17.(수)
+   - 비고: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024. 02. 02.(금) 14:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표: 2024. 02. 14.(수) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록: 2024. 02. 14.(수) 09:00 ~ 16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표: 2024. 02. 15.(목) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록: 2024. 02. 15.(목) 09:00 ~ 16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록: 개별 전화 통보 시 안내
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+이 일정을 참고하여 원하는 모집단위와 전형에 맞게 준비하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.5089773614363778</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0.2971071149335419</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0.4074941451990633</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집 전형 중 수능 미응시자도 지원이 가능한 전형은 다음과 같습니다:
+1. **다군 수능(일반학생전형)**:
+   - 이 전형은 수능을 필수로 요구하지 않으며, 수능 미응시자도 지원 가능합니다.
+   - 모집단위: 인문사회과학대학, 상경대학 등 다수의 학과가 해당됩니다.
+2. **나군 실기/실적(일반학생전형)**:
+   - 이 전형은 주로 실기고사와 수능 성적이 함께 반영되지만, 일부 모집단위에서는 수능 미응시자도 지원이 가능합니다.
+   - 예를 들어, 디자인조형학과, 체육학과 등에서 수능 미응시자도 지원이 가능합니다.
+3. **나군 실기/실적(경기실적우수자전형)**:
+   - 이 전형은 주로 경기 실적을 중점적으로 평가하며, 수능 성적이 필수는 아닙니다.
+   - 모집단위: 전 모집단위에서 지원 가능합니다.
+4. **나군 학생부교과(농어촌학생전형)**:
+   - 이 전형은 주로 학생부 교과성적을 중점적으로 평가하며, 수능 성적이 필요하지 않습니다.
+   - 모집인원: 16명
+5. **나군 학생부교과(평생학습자전형)**:
+   - 이 전형은 주로 학생부 교과성적을 중점적으로 평가하며, 수능 성적이 필요하지 않습니다.
+   - 모집인원: 11명
+6. **나군 학생부종합(평생학습자전형)**:
+   - 이 전형은 주로 학생부 교과성적을 중점적으로 평가하며, 수능 성적이 필요하지 않습니다.
+   - 모집인원: 16명
+7. **나군 학생부종합(성인학습자(정원내)전형)**:
+   - 이 전형은 주로 학생부 교과성적을 중점적으로 평가하며, 수능 성적이 필요하지 않습니다.
+   - 모집인원: 7명
+8. **나군 학생부종합(성인학습자(정원외)전형)**:
+   - 이 전형은 주로 학생부 교과성적을 중점적으로 평가하며, 수능 성적이 필요하지 않습니다.
+   - 모집인원: 40명
+9. **나군 학생부종합(재직자전형)**:
+   - 이 전형은 주로 학생부 교과성적을 중점적으로 평가하며, 수능 성적이 필요하지 않습니다.
+   - 모집인원: 21명
+10. **나군 학생부종합(조기취업형계약학과전형)**:
+    - 이 전형은 주로 학생부 교과성적을 중점적으로 평가하며, 수능 성적이 필요하지 않습니다.
+    - 모집인원: 21명
+이러한 전형들은 주로 학생부 교과성적을 중점으로 평가하므로, 수능 미응시자도 지원이 가능합니다. 그러나 각 전형의 세부 사항은 공지된 내용을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.1030927835051546</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0.05517241379310345</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0.08591065292096219</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2024학년도 데이터를 바탕으로, 전자공학과의 충원 합격자는 3차까지 이루어졌습니다. 
+특히, 전자공학과는 다음과 같이 모집되었습니다:
+- 모집인원: 69명
+- 지원인원: 105명 
+- 경쟁률: 1.52
+- 충원 합격 (후보순위): 36명
+충원 합격이 이루어진 후보는 총 36명으로, 이 중 3차까지의 합격자를 배정하였음을 의미합니다.
+따라서 전년도(2023년도)에 전자공학과의 충원 합격은 최소 3차까지 이루어졌다고 추론할 수 있습니다. 하지만 정확한 데이터는 해당 대학 입학처 웹사이트를 참조하시면 더욱 확실한 정보를 얻으실 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.264367816091954</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0.1279069767441861</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0.1839080459770115</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 입학처의 전화번호가 포함되어 있지 않습니다.官方网站没有提供동义大学入学处的电话号码信息。
+如果您需要查询具体的电话号码，建议访问东义大学官网或者直接联系学校的招生办公室。您也可以尝试通过以下方式获取相关信息：
+1. 访问东义大学的官方网站，在“联系我们”或“招生信息”等相关页面查找联系方式。
+2. 通过电子邮件发送询问，通常学校会有专门的邮箱地址来处理此类问题。
+3. 如果有可能的话，直接前往学校的招生办公室进行咨询。
+如果您需要帮助访问官网或其他相关信息，请告诉我，我会尽力提供进一步的帮助。</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화통보 시, 전화 통화가 되지 않는 경우에도 합격 사실이 확인됩니다. 다만, 학생들은 다음과 같은 절차를 따르는 것이 좋습니다:
+1. **개별 전화 통보 후 2024년 2월 20일까지** 홈페이지에서 개별 조회를 통해 합격 여부를 확인해야 합니다.
+2. **고지서 교부**: 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+3. **등록장소**: 등록금 고지서에 기재된 학교 지정은행으로 등록을 마무리해야 합니다.
+따라서 전화 통화가 되지 않더라도, 위의 절차를 준수하여 합격 여부와 등록 과정을 완료하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.3127962085308057</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0.09569377990430622</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0.1895734597156398</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원시 다음과 같은 서류가 필요합니다:
+1. 지원자 본인의 가족관계증명서 1부
+2. 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+3. 중학교 학교생활기록부 1부 
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+   - 부모가 사망한 경우, 사망한 부 또는 모의 기본증명서 1부를 추가로 제출
+   - 부모가 이혼한 경우, 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부와 본인의 기본증명서(상세) 1부를 추가제출
+6년 과정과 12년 과정에 따라 약간의 차이가 있으니, 구체적인 지원 자격 및 제출 서류는 해당 모집단위의 공지사항을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.4246823956442831</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0.302367941712204</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0.366606170598911</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원시 제출해야하는 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부 
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+   - 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+이 외에 중학교와 고등학교 재학 시 부모 모두 농어촌 지역에서 거주한 경우 '6년과정' 서류제출이 가능합니다.
+참고로, 이 서류들은 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24 등에서 발급할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.5461538461538461</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0.3720930232558139</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0.4692307692307692</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>提供的信息中没有明确提到2024年在普通招生（정시모집）中是否会进行低收入机会均等类型的招生。建议直接访问学校官网（https://ipsi.deu.ac.kr/main.do）以获取最准确的信息，或者咨询学校的招生办公室以确认具体的招生政策和计划。
+如果需要了解更多信息，可以参考以下步骤：
+1. 访问学校官方网站。
+2. 在“招生信息”或类似栏目下查找最新的招生简章。
+3. 联系学校的招生办公室进行详细咨询。</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0.04545454545454545</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0.1739130434782609</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>2.5등급은 등급점수로 표현할 때 115점입니다 (평균적으로 중간값을 반올림한 값). 수능 최저등급 기준에서 사탐 2과목 평균산출 시 2.5등급이 나오더라도 절사하여 2등급으로 처리되지 않습니다.
+즉, 2.5등급은 그대로 2.5등급으로 인정됩니다. 
+수능 최저등급 기준에서 사탐 2과목 평균산출 시 등급점수를 정확히 계산한 후 그 점수로 평균을 내어 반올림하여 처리합니다. 따라서 2.5등급은 그대로 유지됩니다.
+참고로, 수능 최저등급 기준에서 각 과목의 등급별 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점 
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점
+따라서 2.5등급은 115점을 가지므로, 평균산출 시 그대로 반영됩니다.</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0.1290322580645161</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0.168</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 4차로 이루어집니다.
+1. **1차 충원 합격자 발표**: 2024년 2월 14일 (수) 09:00
+2. **1차 충원 합격자 등록**: 2024년 2월 14일 (수) 09:00 ~ 16:00
+3. **2차 충원 합격자 발표**: 2024년 2월 15일 (목) 09:00
+4. **2차 충원 합격자 등록**: 2024년 2월 15일 (목) 09:00 ~ 16:00
+이후에는 3차 충원 합격자를 위한 발표와 등록이 개별 전화 통보 방식으로 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.3959390862944163</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0.1641025641025641</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0.3147208121827411</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑几个因素：
+1. **e비즈니스학과의 모집인원 및 지원 인원**: 根据提供的信息，2024学年该专业的招生人数为10人，实际报名人数为36人。这意味着竞争非常激烈。
+2. **平均成绩和标准差**：您提到的4.6分的成绩需要与已知的数据进行比较。
+   - 国语 + 数学 + 研究（2个）（含加分）标准化总分均值是 103.58
+   - 标准差为 9.7
+3. **成绩分布**：4.6分的成绩在已知数据中处于较低水平。我们需要知道这个分数是否高于或低于平均值，以及它与标准差的关系。
+假设：
+- 平均分为103.58
+- 标准差为9.7
+计算4.6分相对于平均分的差距：
+\[ \frac{4.6 - 103.58}{9.7} = -10.2\]
+这个结果表明，4.6分的成绩远低于已知数据中的平均值。因此，仅凭这一点来看，通过正统的高考成绩达到录取线的可能性非常低。
+但是：
+- 如果该大学有其他特殊政策或加分项（如特长生、艺术特长等），可能会有所不同。
+- 有些学校可能在某些情况下会考虑调剂或其他特殊情况。
+综上所述，在没有其他特殊因素的情况下，仅凭4.6分的成绩，通过正统的高考成绩被e비즈니스学录取的可能性非常低。建议咨询该大学的具体招生政策或直接联系招生办公室获取更准确的信息。</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.1388174807197944</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0.00516795865633075</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0.1028277634961439</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 최초합격 가능성을 평가해보겠습니다.
+주요 데이터:
+- 모집 인원: 10명
+- 지원 인원: 89명
+- 경쟁률: 8.90
+- 충원 합격 (후보순위): 31명
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.20
+- 영어 등급의 평균: 3.20
+주요 요인:
+1. **경쟁률**: 8.90은 상대적으로 높은 경쟁률입니다.
+2. **평균 점수**: e비즈니스학과의 최초합격자들의 평균 점수가 317.20이며, 이는 등급 5.3에 해당하는 점수보다 약간 높습니다.
+등급 5.3은 대략 국어 4.8, 수학 4.9, 영어 5.0 정도의 평균 점수를 의미합니다. 이 점수는 e비즈니스학과의 최초합격자들의 평균 점수(국어 + 수학 + 탐구)보다 약간 낮습니다.
+따라서, 등급 5.3으로 e비즈니스학과에 최초 합격하는 것은 가능하지만, 경쟁률이 높아서 확실한 보장은 아닙니다. 평균 점수를 넘어서는 수능 성적과 학생부 성적이 우수하다면 더 높은 가능성은 있을 것입니다.
+결론적으로, 등급 5.3으로 e비즈니스학과에 최초 합격하는 것은 가능하지만, 확실한 보장은 아닙니다. 추가적인 지원 자질이나 학생부 성적 등을 고려하여 결정하시면 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.3014492753623188</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0.09912536443148687</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0.1797101449275362</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要更多的信息来评估您是否有资格被预录取。根据提供的信息，以下是一些关键点：
+1. **招生类型**：您提到的是“eBiz（电子商务）专业”，但没有明确是哪个学院或具体的招生计划。
+2. **成绩和排名**：您说您的预估分数为38名，但没有提供具体的成绩数据。通常，学校会根据学生的高考总分、科目等级等进行评估。
+3. **录取标准**：
+   - 一般情况下，不同专业的录取分数线可能会有所不同。
+   - 学校可能会考虑综合成绩（如高考成绩和面试成绩），以及特定科目的成绩（如语文、数学、英语等）。
+   - 对于某些专业，还可能有额外的要求，比如实操能力测试或面试表现。
+4. **参考信息**：
+   - 从提供的数据来看，不同专业的录取情况差异较大。例如，计算机科学与技术类专业的竞争较为激烈（如计算机工程和软件工程），而其他一些专业则相对宽松。
+   - 比如，2023年某专业可能的录取分数线是前50名，但到了2024年可能会有所变化。
+建议您：
+1. **查看具体招生简章**：每个专业的具体要求可能会有所不同，请务必仔细阅读相关学院或专业的招生简章。
+2. **了解往年数据**：参考往年的录取情况和分数线，可以帮助您更好地评估自己的竞争力。
+3. **咨询学校**：直接联系学校的招生办公室，询问您的具体情况是否符合预录取条件。
+如果您能提供更多详细信息（如具体专业、科目成绩等），我可以为您提供更具体的建议。如果需要进一步的帮助或有其他问题，请告诉我！</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.05755395683453237</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0</v>
+      </c>
+      <c r="F265" t="n">
+        <v>0.05755395683453237</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 최초합격자와 최종등록자의 성적 데이터를 분석해보겠습니다.
+1. **최초합격자**:
+   - 모집인원: 22명
+   - 지원인원: 145명
+   - 경쟁률: 6.59
+   - 영어 등급의 평균: 3.87 (최고치)
+   - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 460.33
+2. **최종등록자**:
+   - 모집인원: 22명
+   - 지원인원: 145명
+   - 경쟁률: 6.59
+   - 영어 등급의 평균: 3.87 (최고치)
+   - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 481.70
+이 데이터를 바탕으로, 간호학과의 최저합격 기준은 상당히 높습니다. 특히, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균이 매우 높습니다.
+**분석 결과:**
+- 당신의 성적(3.44)은 최초합격자와 최종등록자의 평균보다 낮습니다.
+- 이는 합격 가능성에 부정적인 신호를 줍니다.
+하지만, 정시 모집에서 합격 여부는 여러 요인에 의해 결정되므로 완전히 배제할 수 없습니다. 예를 들어:
+1. **특이성**: 당신의 특별한 경력이나 활동이 있다면 이점이 있을 수 있습니다.
+2. **추가 지원**: 다른 대학이나 학과에서 지원하여 보완할 수 있습니다.
+결론적으로, 현재의 성적만으로는 동의대학교 간호학과에 합격하기 어렵다고 판단됩니다. 하지만 추가적인 지원 전략을 세우고 다양한 경로를 고려하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.258575197889182</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0.1007957559681698</v>
+      </c>
+      <c r="F266" t="n">
+        <v>0.1741424802110818</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2.52라는 성적을 가지고 동의대학교 간호학과에 최종합격하기는 매우 어려울 것으로 보입니다.
+다음은 이유와 함께 조언입니다:
+1. 경쟁률 및 평균 점수:
+   - 간호학과의 경쟁률이 높습니다 (6.59).
+   - 평균 국어+수학+탐구(2개) 표준 변환점수 합은 357.63입니다.
+   - 영어 등급 평균은 1.86이며, 수능 4개 영역 등급 평균은 3.12입니다.
+2. 성적 차이:
+   2.52는 평균 점수(357.63)와 비교해 매우 낮습니다.
+   이 정도 성적을 가진 학생들은 대부분 충원되지 않습니다.
+3. 동기부여 및 준비 필요성:
+   - 추가적인 공부나 학습이 필수적입니다.
+   - 간호학과에 대한 열정과 적합성을 강조해야 합니다.
+4. 대안 고려:
+   - 다른 의료보건 관련 전공을 고려해볼 수 있습니다.
+   - 재수를 계획하는 것도 한 방법일 수 있습니다.
+5. 지원 전략:
+   - 서류평가와 면접 준비에 더 많은 시간을 할애해야 합니다.
+   - 학교생활기록부에서 보여줄 수 있는 긍정적인 요소들을 강조해야 합니다.
+결론적으로, 현재 성적만으로는 최종합격이 어렵지만, 추가 공부와 전략적인 지원을 통해 가능성을 높일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.2382445141065831</v>
+      </c>
+      <c r="E267" t="n">
+        <v>0.0946372239747634</v>
+      </c>
+      <c r="F267" t="n">
+        <v>0.1504702194357367</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>3.7의 GPA는 좋은 점수입니다만, 간호학과에 지원하기 위해서는 몇 가지 요소를 고려해야 합니다.
+1. **전형 유형**: 간호학과는 일반적으로 경쟁이 매우 치열합니다. 특히 교직 간호학과는 수험생들의 학업 성적이 높은 편입니다. 따라서 3.7의 GPA는 좋은 점수지만, 평균 이상의 점수가 필요할 수 있습니다.
+2. **전형 요소**: 대부분의 전형에서는 학업 성적 외에도 면접 성적, 서류 평가 등이 포함됩니다. 특히 간호학과는 실무 능력과 인성도 중요하게 평가받습니다.
+3. **면접 및 서류 평가**: 면접에서 좋은 모습을 보여주고, 서류 평가에서도 지원 동기와 학업 계획 등을 잘 표현한다면 이점이 될 수 있습니다.
+4. **추천서 및 기타 자료**: 추천서나 추가로 제출해야 하는 자료 등도 중요합니다. 이들 자료에서 지원자의 적합성을 강조할 수 있는 부분을 잘 준비하면 도움이 될 수 있습니다.
+5. **모집인원과 경쟁률**: 간호학과의 모집 인원과 전체 지원자 수를 고려해야 합니다. 경쟁률이 높다면 3.7의 GPA로 합격하기는 어렵습니다.
+결론적으로, 3.7의 GPA만으로는 확실한 합격을 보장할 수 없습니다. 그러나 학업 성적 외에도 좋은 면접 성적과 서류 평가를 받으면 가능성이 있습니다. 따라서 다음과 같은 준비를 하는 것이 좋습니다:
+- **면접 준비**: 면접에서 지원 동기와 미래 계획 등을 잘 표현할 수 있도록 준비하세요.
+- **서류 준비**: 학업계획, 지원동기 등 서류에서도 잘 나타낼 수 있는 내용을 포함시켜 보세요.
+- **추천서 및 기타 자료**: 추천서나 추가로 제출해야 하는 자료를 잘 준비하고 제출하세요.
+이러한 요소들을 모두 고려하여 최선을 다하면 합격 가능성은 높아질 것입니다.</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.1358313817330211</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0.02352941176470589</v>
+      </c>
+      <c r="F268" t="n">
+        <v>0.07962529274004683</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집에서 지원자의 성적 평균은 353.48입니다 (국어 + 수학 + 탐구(2개) 가산점 포함 표준 변환 점수 합). 
+당신의 성적이 2.58이므로, 이는 평균보다 상당히 낮습니다. 그러나 정시 모집은 단순히 성적만으로 결정되는 것이 아니라 전반적인 지원 자격과 경쟁률 등 여러 요인을 고려합니다.
+다음은 몇 가지 고려해야 할 사항입니다:
+1. 경쟁률: 간호학과의 경쟁률이 6.59로 높습니다. 따라서 성적이 낮더라도 특별한 이유가 있다면 합격 가능성은 있습니다.
+2. 지원 자격: 전문적인 의료 분야인 간호학과는 일반적으로 고등학교 졸업 자격이 필요하며, 일부 대학에서는 추가적인 요구 사항도 있을 수 있습니다.
+3. 서류 및 면접 성적: 동의대학교는 학생부 종합전형을 통해 지원자를 평가하기 때문에, 서류와 면접에서 좋은 점수를 받으면 이점을 활용할 수 있습니다.
+4. 추가 정보 제공: 특별한 경력이나 활동, 자발적인 참여 등이 있다면 이를 서류에 잘 반영하면 도움이 될 수 있습니다.
+결론적으로, 성적이 낮아서 합격 확률은 높지 않을 것 같습니다만, 전반적인 지원 자질과 경쟁 상황을 고려하여 최선을 다해 지원하는 것이 중요합니다. 추가 정보와 활동을 잘 준비하고 서류를 체계적으로 작성하면 합격 가능성도 조금은 높일 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.2274052478134111</v>
+      </c>
+      <c r="E269" t="n">
+        <v>0.0527859237536657</v>
+      </c>
+      <c r="F269" t="n">
+        <v>0.1224489795918367</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>为了回答您是否能被游戏学专业(游戏工学部)录取,我们需要考虑以下几个因素:
+1. 您的综合评价排名。根据信息,该专业的预录取名额为3名。
+2. 您的成绩情况:
+   - 国语 + 数学 + 研究科目 (两门) 标准转换分数总和平均值: 303.05
+   - 英语等级的平均分: 3.25
+   - 4个高考科目等级平均分: 4.78
+3. 您是否满足该专业的其他要求,如实测/实际成绩(如果适用)。
+4. 其他申请者的竞争情况。根据信息,该专业有16名申请人,竞争比为5.33。
+综合来看:
+- 由于预录取名额有限(仅3人),您的分数处于中等偏上水平。
+- 您的成绩在所有申请者中相对较好,但不是最高分。
+- 竞争较为激烈,需要考虑其他申请者的具体情况。
+因此,虽然您有较好的机会被录取,但并不能保证一定能被录取。建议密切关注后续的正式录取结果通知,并做好备选方案。祝您好运!</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0.1006289308176101</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0</v>
+      </c>
+      <c r="F270" t="n">
+        <v>0.0880503144654088</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>4.16이라는 점수는 표준점수로 보이는데, 이는 수능 4개 영역(국어, 수학, 외국어, 과탐)의 등급을 기반으로 한 것입니다.
+2024학년도 동의대학교 게임공학과의 지원 정보를 보면:
+- 모집인원: 3명
+- 지원 인원: 16명
+- 경쟁률: 5.33
+이 데이터는 현재로서는 가장 유사한 상황을 반영할 수 있습니다.
+경쟁률 5.33은 100명 중 약 19명 정도가 합격하는 것을 의미합니다 (1 / 5.33 ≈ 0.187).
+따라서, 4.16이라는 점수로 지원한다면 추가 합격을 받기 위해서는 상당히 높은 경쟁률을 이겨내야 합니다.
+추가 합격 확률을 정확하게 예측하기는 어렵지만, 다음과 같은 요인들을 고려할 수 있습니다:
+1. 다른 지원자의 성적 분포
+2. 서류평가와 면접 등의 결과
+3. 전형별 가산점 적용 여부
+일반적으로 경쟁률이 높은 학과에서는 추가 합격을 받기 어렵습니다. 하지만 최소한 5~10명 정도의 추가 합격자가 있을 가능성이 있습니다.
+결론적으로, 4.16이라는 점수로는 추가 합격 확률이 매우 낮다고 볼 수 있으며, 가장 낙관적인 경우에도 2-3명 정도를 받을 가능성이 높습니다. 정확한 예측은 지원자의 전체 경쟁력을 고려해야 하므로, 최선의 준비와 노력이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="E271" t="n">
+        <v>0.07100591715976332</v>
+      </c>
+      <c r="F271" t="n">
+        <v>0.1352941176470588</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看东国大学经营信息学部在特定招生年份和批次的录取标准。根据您提供的信息，经营信息学部属于“가군 (一般学生型)”招生类别，并且该类别的录取主要基于高考成绩。
+关键点如下：
+1. **招生类型**：经营信息学部属于“가군 (一般学生型)”，这意味着它主要依据高考成绩进行选拔。
+2. **高考成绩要求**：您提到的成绩为3.75，但没有明确指出这是高考的哪个科目或总分。通常，“3.75”可能是指高考各科目的平均分数或者某种标准化后的分数。
+假设“3.75”是高考成绩的一个指标（例如，高考总分中的某个部分），我们需要知道具体的招生标准来判断是否满足条件。一般而言：
+- **가군 (一般学生型)** 的录取通常会参考高考的语文、数学、英语和综合科目等主要科目的成绩。
+- 东国大学经营信息学部的具体录取分数线每年可能会有所不同，需要查看当年的招生简章或官方公告。
+因此，要确定3.75的成绩是否足够获得第一志愿（即“최초등록자”）资格，您需要：
+1. 查看东国大学2024年经营信息学部的招生简章。
+2. 了解该学部在“가군 (一般学生型)”的具体录取分数线和标准。
+3. 确认您的成绩是否达到了这些标准。
+建议直接访问东国大学官方网站或联系招生办公室获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E272" t="n">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="F272" t="n">
+        <v>0.09333333333333334</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体信息：
+1. 经营信息学部在普通学生选拔（一般学生选拔）中的招生情况。
+2. 最新的录取标准和要求。
+根据您提供的信息，经营信息学部的招生情况如下：
+- 招生人数：7
+- 报名人数：67
+- 竞争率：0.87
+从这些数据来看，竞争率相对较低。但是，仅凭竞争率无法确定是否能被录取。
+关键在于您的成绩（4.2）与该专业的录取标准之间的关系。通常情况下，普通学生选拔的录取标准会包括以下几个方面：
+- 高考总分
+- 各科目的分数分布情况
+- 英语等级
+您提供的具体数据中没有提到这些详细信息。因此，我们需要假设以下几点来分析：
+1. **高考总分**：4.2通常是指高考成绩的标准化转换后的平均值。
+2. **各科目成绩**：虽然没有具体说明，但可以推测您的总分可能接近或略高于招生标准。
+为了更准确地判断您是否有可能被录取，我们需要以下信息：
+- 经营信息学部的具体录取分数线
+- 各科目的详细分数分布情况
+如果4.2的平均值位于或接近该专业的录取分数线附近，并且没有明显的短板（如英语等级过低），那么理论上是有可能被录取的。
+建议您直接咨询学校招生办公室，获取最新的具体录取标准和要求。他们可以提供最准确的信息并帮助您判断是否有机会被录取。</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.06993006993006994</v>
+      </c>
+      <c r="E273" t="n">
+        <v>0</v>
+      </c>
+      <c r="F273" t="n">
+        <v>0.05594405594405594</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경영정보학과의 경우, 수능 전형성적 산출방법은 다음과 같습니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+이에 따라 5.33 등급의 영어 점수는 다음과 같이 변환됩니다:
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점
+- 10등급: 67점
+따라서, 5.33 등급의 영어 점수는 약 92점으로 추정됩니다.
+이제 전체 성적을 합산해보겠습니다:
+- 국어 표준점수 (예시로 104점)
+- 수학 표준점수 (예시로 108점)
+- 영어 등급점수: 92점
+- 탐구 표준점수 (예시로 50점)
+합산 점수 = 104 + 108 + 92 + 50 = 354점
+이 점수를 확인해보겠습니다:
+- 수능 전형성적 산출방법: 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+- 2024년도 경영정보학과 모집인원 및 지원자 수를 확인해보면, 경쟁률이 높은 편입니다.
+따라서, 354점의 성적만으로는 경쟁력이 약간 부족할 가능성이 있습니다. 하지만 최종 합격 여부는 모집인원과 지원자 수, 그리고 다른 지원자의 성적이 결정됩니다. 
+추천 드리는 것은:
+1. 다른 과목의 표준점수를 확인하여 전체 점수를 더 정확히 계산해보세요.
+2. 동의대학교 입학 홈페이지나 공지사항을 통해 최신 정보를 확인하세요.
+3. 전형별 모집인원과 지원자 수, 경쟁률 등을 참고하여 합격 가능성 평가를 해보세요.
+결론적으로, 5.33 등급의 영어 점수로는 약간 부족할 가능성이 있지만, 최종 결과는 여러 요소에 따라 결정되므로 정확한 판단을 위해서는 추가 정보를 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.1571428571428572</v>
+      </c>
+      <c r="E274" t="n">
+        <v>0.03827751196172249</v>
+      </c>
+      <c r="F274" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학과의 경우, 정원 내 모집 인원은 46명이며, 지원 인원은 21명으로 경쟁률이 2.19입니다. 최초등록자 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 450.71
+- 영어 등급의 평균: 3.30
+이러한 정보를 바탕으로, 성적 3.33은 평균적인 최초등록자보다 약간 낮습니다. 그러나 경쟁률이 낮고 지원 인원이 적기 때문에, 성적이 조금 낮더라도 합격 가능성은 있습니다.
+주의할 점:
+1. 성적 외 요소: 면접 결과와 서류 평가 등에서 좋은 성적을 보여줄 수 있어야 합니다.
+2. 경쟁률: 현재의 지원자 수는 매우 적기 때문에, 다른 지원자의 성적이 낮다면 유리합니다.
+3. 전형별 특성: 학생부종합전형에서는 서류와 면접 평가가 중요하므로, 이 부분에서 좋은 점수를 받을 수 있어야 합니다.
+결론적으로, 성적 3.33은 가능성이 있지만, 경쟁률과 지원자의 다양성 등을 고려할 때 확실한 합격을 보장하는 것은 아닙니다. 최선의 준비와 노력이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.2811501597444089</v>
+      </c>
+      <c r="E275" t="n">
+        <v>0.07717041800643086</v>
+      </c>
+      <c r="F275" t="n">
+        <v>0.1533546325878594</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>2024년 경희대학교 방사선학과의 모집요강을 참고하면 다음과 같습니다:
+- 단과대학: 의료·보건·생활대학
+- 계열: 자연과학
+- 모집단위: 방사선학과
+- 모집인원: 2명
+수능(일반학생전형) 최종등록자에서의 통계:
+- 지원 인원: 2명
+- 경쟁률: 1.00 (즉, 완전 충원)
+- 국어 + 수학 + 탐구(2개) 표준 변환 점수 합 평균: 347.50
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 461.88
+이 통계를 보면 방사선학과는 매우 경쟁률이 낮은 곳으로, 완전 충원되었습니다.
+당신의 현재 수능 등급이 4.4라면, 이 수준에서는 방사선학과에 입학하기 어려울 것으로 보입니다. 평균 점수가 347.50 이상이고, 표준 변환점수 합 평균이 461.88인 것을 고려하면, 당신의 등급은 약간 낮은 편에 속합니다.
+그러나 이는 단순 통계만으로 판단하는 것이 아니라, 개인적인 경쟁력을 종합적으로 판단해야 합니다. 다음과 같은 요소들을 고려해보세요:
+1. 수능 외 추가 평가 항목 (면접 등)
+2. 학교생활기록부의 성적 및 활동
+3. 특기사항이나 자질 등 개인적인 강점
+또한, 다른 자연과학 계열의 과정들을 고려해보는 것도 좋을 것 같습니다. 경쟁률이 낮고, 당신의 수능 점수와 잘 맞는 과정들이 있을 수 있습니다.
+결론적으로, 현재의 성적만으로 방사선학과에 입학하기는 어렵다고 판단됩니다. 다른 대안들을 고려해보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E276" t="n">
+        <v>0.0582010582010582</v>
+      </c>
+      <c r="F276" t="n">
+        <v>0.1421052631578947</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2024학년도 방사선학과의 경쟁률이 7.20으로 높고, 충원 합격자는 5명입니다. 지원 인원이 36명이므로 평균적인 경쟁률을 고려할 때, 2.66이라는 표준 변환 점수는 상대적으로 낮은 편입니다.
+평균 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 338.76이며, 표준 편차는 5.40입니다. 이에 비해 2.66은 상대적으로 낮습니다.
+따라서, 2.66이라는 점수로 방사선학과를 지원하는 것은 위험할 수 있습니다. 경쟁률이 높고 충원 합격 인원이 적기 때문에, 다른 모집단위나 전형을 고려해 보는 것이 좋을 것 같습니다.
+추천 사항:
+1. 다른 모집단위(예: 의료보건생활대학의 방사선학과)를 검토해 보세요.
+2. 학생부종합전형이나 특기자전형 등을 고려해 볼 수 있습니다.
+3. 추가적으로 지원 가능한 전공을 찾아보는 것도 좋습니다.
+더 자세한 정보나 도움이 필요하시면, https://ipsi.deu.ac.kr/main.do를 참조하거나 입학처에 문의하시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.2534246575342466</v>
+      </c>
+      <c r="E277" t="n">
+        <v>0.04827586206896551</v>
+      </c>
+      <c r="F277" t="n">
+        <v>0.1643835616438356</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>3.66의 성적을 가지고 경찰행정학과 농어촌 전형에 지원하셨다면, 합격 가능성은 있습니다만, 확실한 것은 아닙니다. 이유는 다음과 같습니다:
+1. **전형 방식**: 농어촌 전형은 일반적으로 학생부와 면접을 중점적으로 평가하는 경향이 있습니다. 따라서 성적이 좋은 경우에도 합격 가능성은 있지만, 학생부와 면접에서 좋은 평가를 받는 것이 중요합니다.
+2. **학생부 평가**: 3.66의 GPA는 꽤 좋은 점수입니다. 하지만 전공적합성과 학업역량 등 학생부 내용이 중요한 역할을 합니다. 특히 경찰행정학과와 관련된 활동이나 경험, 관심사 등을 잘 보여줄 수 있어야 합니다.
+3. **면접 평가**: 면접에서는 지원 동기, 학업 계획, 전공 적합성 등에 대해 깊이 있게 답변해야 합니다. 또한, 경찰관으로서 필요한 소양과 역량을 갖추고 있는지 평가받을 것입니다.
+4. **전형 점수**: 경찰행정학과의 경우, 학생부와 면접의 비중이 높으므로 3.66의 성적만으로는 결정적인 영향을 미치지는 않을 수 있습니다. 하지만 학생부와 면접에서 좋은 평가를 받으면 합격 가능성은 높아집니다.
+5. **경쟁률**: 경찰행정학과의 경우, 특히 농어촌 전형에서는 지원자가 많을 수 있으므로 경쟁률이 높을 가능성이 있습니다. 따라서 성적 외에도 다른 평가 요소에서 우수한 점수를 받는 것이 중요합니다.
+**추천 사항:**
+- **학생부 준비**: 학교생활기록부와 서류평가에서 경찰행정학과와 관련된 활동이나 경험을 잘 보여줄 수 있도록 준비하세요.
+- **면접 준비**: 면접에서는 지원 동기, 학업 계획, 전공 적합성 등을 깊이 있게 답변할 수 있도록 준비하세요. 특히, 경찰관으로서 필요한 소양과 역량에 대해 잘 설명할 수 있어야 합니다.
+결론적으로 3.66의 성적만으로는 확실한 합격을 보장하지는 못하지만, 학생부와 면접에서 좋은 평가를 받으면 충분히 합격 가능성은 있습니다.</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.2544731610337972</v>
+      </c>
+      <c r="E278" t="n">
+        <v>0.06786427145708583</v>
+      </c>
+      <c r="F278" t="n">
+        <v>0.1391650099403579</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>25번의 순위는 매우 높은 점수를 요구하는 경우가 많습니다. 그러나 정시 합격 가능성을 판단하기 위해서는 몇 가지 요소를 고려해야 합니다:
+1. **전형 유형**: 수능 위주인 전형이라면, 수능 점수가 중요합니다.
+2. **모집 인원과 지원자 수**: 모집 인원이 적고 지원자가 많으면 경쟁률이 높아지므로 낮은 순위도 합격 가능성 있습니다.
+3. **개별 성적**: 자신의 수능 성적이 어느 정도인지, 전형요소 반영비율을 고려할 때 얼마나 높은 점수를 받았는지를 확인해야 합니다.
+4. **동점자 처리 기준**: 동점자 처리 기준이 무엇인지도 중요합니다. 예를 들어, 수능 국어나 수학 등 특정 영역의 성적이 우선적으로 평가될 경우, 높은 순위라도 합격할 가능성이 있습니다.
+5. **전형별 특성**: 각 전형별로 다른 요소들이 반영되므로, 해당 전형의 특성을 잘 이해하고 있어야 합니다.
+현재 정보만으로는 확실한 답변을 드리기 어렵습니다. 하지만 25번은 상당히 높은 순위이므로, 합격 가능성은 낮다고 볼 수 있습니다. 그러나 최종 결과는 입학처에서 발표하는 공고를 통해 확인해야 합니다.
+추가적으로 원서 제출 후에는:
+- **수능 성적 확인**: 수능 성적이 나왔다면 이를 잘 활용해보세요.
+- **면접 준비**: 면접이 포함된 전형이라면 면접 준비도 필요합니다.
+- **추천서 작성**: 필요한 경우 추천서를 작성하고 제출하세요.
+입학처 홈페이지나 입학 안내 센터에서 추가 정보를 확인하시거나, 학교 측에 직접 문의해보는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.2130434782608696</v>
+      </c>
+      <c r="E279" t="n">
+        <v>0.05240174672489083</v>
+      </c>
+      <c r="F279" t="n">
+        <v>0.1043478260869565</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 법경찰행정학부의 정시 모집인원과 전형별 모집인원을 살펴보면 다음과 같습니다:
+1. **전형별 모집단위별 모집인원**에서:
+   - 단과대학은 법경찰행정학부이며,
+   - 모집단위는 법학과이며,
+   - 정원 내 모집 인원은 40명입니다.
+2. **정시모집군 변경**에서:
+   - 2023년도에는 '가'군이었으나, 
+   - 2024년도에는 '다'군으로 변경되었습니다.
+3. **전형요소 반영비율**에서:
+   - 학생부교과(학생부교과 위주): 70%
+   - 면접: 30%
+4. **나군 학생부교과(농어촌학생전형) - 정원외 모집단위 및 모집인원**에서:
+   - 법학과는 최대선발 가능 인원이 3명 이내입니다.
+5. **나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)**에서:
+   - 모집단위는 법경찰행정학부이며,
+   - 전형명은 학생부종합(성인학습자(정원외)전형)입니다.
+   - 모집인원은 17명입니다.
+6. **나군 학생부종합 평가영역**에서:
+   - 공동체역량: 140점
+   - 학업역량: 280점
+   - 전공적합성: 280점
+이러한 정보를 종합하면, 법경찰행정학부의 정시 모집인원은 40명으로 많지만, 나군 성적 기준을 고려할 때 안정적인 합격을 위해서는 평균적으로 **95점 이상**의 국어, 수학, 영어 등급이 필요할 것으로 예상됩니다. 
+특히, 면접 비중이 30%인 점을 감안하면, 성적 외에도 인성 및 전공 적합성을 잘 보여줄 수 있는 준비가 필요합니다.
+따라서, **95점 이상의 평균 등급**을 받으면 안정적인 합격 가능성이 높아지며, **100점 이상의 평균 등급**을 받으면 문 닫고 들어갈 수 있을 정도로 높은 확률이 있습니다.</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.3241678726483357</v>
+      </c>
+      <c r="E280" t="n">
+        <v>0.06676342525399129</v>
+      </c>
+      <c r="F280" t="n">
+        <v>0.1678726483357453</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 보육가정상담학과의 모집요강을 보면, 일반학생전형은 수능 성적과 학생부 성적이 반영되며, 특히 수능 영어 등급이 중요한 역할을 합니다. 
+현재 제공된 정보에 따르면:
+- 수능 영어 등급의 평균은 4.53입니다.
+- 수능 영어 등급의 표준 편차는 1.01입니다.
+정시 산출 등급이 5.33인 경우, 이는 대략 6등급 정도를 의미합니다. 동의대학교 보육가정상담학과의 영어 등급 평균은 4.53이며, 표준 편차는 1.01입니다.
+영어 등급이 6등급인 경우는 약 1.27 표준편차 이상 높은 수준으로, 이 정도로 높은 점수를 얻기 위해서는 상당한 영어 실력이 필요합니다. 
+따라서 정시 산출 등급이 5.33인 경우, 보육가정상담학과에 합격하기 위해서는 다음과 같은 조건들이 충족되어야 합니다:
+1. 수능 영어 점수가 높아야 합니다 (대략 6등급 이상).
+2. 다른 수능 영역에서도 좋은 성적을 받은 경우 더 유리합니다.
+3. 학생부 성적이 우수해야 합니다.
+따라서 정시 산출 등급이 5.33인 경우, 보육가정상담학과에 합격할 가능성은 있지만 확실하지 않습니다. 최종 합격 여부는 수능 점수와 학생부 성적 등 다양한 요소들이 복합적으로 결정됩니다.
+추가 정보나 자세한 분석을 원하시면, 동의대학교 입학처 웹사이트 (https://ipsi.deu.ac.kr/main.do)를 참조하거나 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.2826086956521739</v>
+      </c>
+      <c r="E281" t="n">
+        <v>0.09836065573770493</v>
+      </c>
+      <c r="F281" t="n">
+        <v>0.1793478260869565</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 경우, 각 모집단위별로 최종 등록자와 충원 합격자를 발표하며, 충원 합격은 여러 차례 이루어질 수 있습니다. 예비 12번을 받았다는 것은 해당 지원자가 이미 일부 충원 과정에서 선발 대상에 포함되어 있다는 것을 의미합니다.
+다음과 같은 절차와 정보를 참고하여 합격 가능성 평가를 해볼 수 있습니다:
+1. **최종 등록자 발표**: 2024년 2월 2일 금요일 14:00에 최초 합격자를 발표합니다.
+2. **등록금 납부 및 충원 합격자 발표**:
+   - 1차 충원 합격자는 2월 7일 수요일부터 13일 화요일까지 등록 가능하며, 2월 14일 목요일 09:00에 1차 충원 합격자를 발표합니다.
+   - 2차 충원 합격자는 2월 15일 목요일 09:00부터 16:00까지 등록 가능하며, 2월 15일 목요일 09:00에 2차 충원 합격자를 발표합니다.
+   - 3차 이후 충원 합격자는 개별 전화 통보를 통해 발표되며, 2월 15일 목요일 19:00부터 2월 20일 화요일까지 가능합니다.
+이러한 일정을 고려하면, 예비 12번을 받았다는 것은 이미 선발 대상에 포함되어 있다는 것을 의미합니다. 그러나 최종 합격 여부는 등록금 납부와 충원 합격자 발표를 통해 확인해야 합니다.
+따라서, 현재 상황에서 가장 중요한 절차는 2월 7일부터 13일까지의 등록 기간 동안 등록금을 납부하고, 2월 14일과 15일에 충원 합격자 발표를 확인하는 것입니다. 만약 이 과정에서 예비 12번이 최종 합격자로 선발되면 합격할 수 있습니다.
+추가적으로, 동의대학교 입학 홈페이지나 공지사항을 통해 최신 정보를 확인하시고, 필요하다면 입학처에 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.4135188866799205</v>
+      </c>
+      <c r="E282" t="n">
+        <v>0.1596806387225549</v>
+      </c>
+      <c r="F282" t="n">
+        <v>0.2306163021868787</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>4.75의 영어 등급은 상당히 높은 점수입니다. 대부분의 대학에서 이 정도의 영어 등급은 좋은 성적을 보여줍니다. 그러나 유아교육학과에 지원할 때, 수능 성적이 단순히 고려되는 것이 아니라 전반적인 학생 평가를 포함하기 때문에 다음과 같은 요소들을 고려해야 합니다:
+1. **전체 수능 점수**: 4.75는 영어 등급이지만, 다른 과목(국어, 수학, 탐구)의 성적도 중요합니다. 전체적으로 높은 수능 점수가 있다면 유리할 것입니다.
+2. **수능 변환점수 평균**: 4.75는 상당히 높은 등급이므로, 다른 지원자들의 평균 점수와 비교하여 어느 정도 위치하는지 확인해야 합니다. 만약 평균보다 높다면 유리할 수 있습니다.
+3. **경쟁률**: 유아교육학과의 경쟁률을 고려해야 합니다. 4.75의 영어 등급만으로는 충분하지 않을 수도 있으며, 다른 지원자들의 전반적인 성적도 중요합니다.
+4. **전형 방식**: 유아교육학과는 종종 인성 및 교육적 적합성을 중시하기 때문에 학생부와 면접 등의 서류평가가 중요한 역할을 합니다. 따라서 수능 점수 외에도 학생부 성적, 활동 등이 중요합니다.
+5. **학생부 성적**: 고등학교 시절의 성적이 좋다면 이점도 있습니다. 특히 사회 과목이나 교육 관련 과목에서 높은 성적을 보여주면 유리할 수 있습니다.
+결론적으로 4.75의 영어 등급만으로는 유아교육학과에 충분히 지원 가능하지만, 전반적인 성적이 좋고 학생부와 면접에서도 좋은 평가를 받는다면 더 높은 확률을 얻을 수 있습니다. 따라서 전체적인 상황을 고려하여 지원 계획을 세우는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.1893333333333334</v>
+      </c>
+      <c r="E283" t="n">
+        <v>0.02941176470588235</v>
+      </c>
+      <c r="F283" t="n">
+        <v>0.1146666666666667</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>4.16 등급은 상당히 좋은 점수입니다. 하지만, 동의대학교 보육가정상담학과의 정시 경쟁률과 모집인원을 고려하면 다음과 같은 점들을 주목해야 합니다:
+1. 경쟁률:
+   - 2024학년도 지원자 중에서 상당수가 4.16 이상의 등급을 가지고 있을 가능성이 높습니다.
+   - 이는 평균 경쟁률이 높아질 수 있음을 의미합니다.
+2. 모집인원:
+   - 보육가정상담학과의 모집인원은 7명입니다.
+3. 지원자 수:
+   - 최종 등록자 중에서 지원 인원이 32명으로, 경쟁률이 약 4.57입니다.
+   - 이는 현재 지원자 수로는 상대적으로 낮지만, 추합까지 포함하면 변동성이 있을 수 있습니다.
+4. 합격 예상:
+   - 4.16 등급은 평균 이상의 점수이므로 충분히 합격 가능성은 있습니다.
+   - 하지만 경쟁률과 모집인원을 고려할 때, 상위권 지원자들 사이에서 치열한 경쟁이 예상됩니다.
+5. 추합 영향:
+   - 추후 추가 지원자가 있을 경우 경쟁률이 높아질 수 있으므로 주의가 필요합니다.
+   - 특히 4.16 이상 등급을 가진 지원자들이 많이 참여할 가능성이 있습니다.
+결론적으로, 4.16 등급은 합격 가능성은 있지만, 확실한 것은 아닙니다. 추합까지 포함하면 경쟁률이 높아질 수 있으므로, 추가 지원자들의 등급과 경쟁력을 고려해야 합니다. 
+추천 사항:
+- 다른 전형(예: 특기자전형, 학생부종합전형)도 함께 준비하는 것이 좋습니다.
+- 대학 입학처에 직접 문의하여 최신 정보를 확인하세요.
+- 지원자의 등급 분포와 경쟁률을 정확히 파악하기 위해 대입 컨설팅 서비스를 활용해 보세요.</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.2517814726840855</v>
+      </c>
+      <c r="E284" t="n">
+        <v>0.08591885441527447</v>
+      </c>
+      <c r="F284" t="n">
+        <v>0.1520190023752969</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프거우리융합학과는 나군(학생부종합전형)으로만 모집되며, 정시모집은 없습니다. 따라서 소프트웨어융합학과를 정시로 지원하는 것은 불가능합니다.
+나군 학생부종합전형의 경우 평균 등급에 따라 합격 가능성이 달라질 수 있습니다. 일반적으로 합격을 위해서는 다음과 같은 조건이 필요할 것으로 예상됩니다:
+1. 국어: 90점 이상
+2. 수학: 85점 이상 (미적분 또는 기하)
+3. 영어: 4등급 이상
+하지만 이는 단순 참고이며, 실제 합격 가능성을 판단하기 위해서는 해당 대학의 전형요소 반영비율과 서류 및 면접 평가 기준 등을 고려해야 합니다. 또한, 지원자의 개인적 특성(공동체역량, 학업역량, 전공적합성 등)도 중요한 요인으로 작용할 수 있습니다.
+따라서 정확한 등급 예상은 해당 대학의 모집요강과 평균 합격자 성적을 참고하여 판단하는 것이 좋습니다. 또한, 지원 전에 입학처나 입학사정관과 상담해보는 것도 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>0.1066666666666667</v>
+      </c>
+      <c r="E285" t="n">
+        <v>0.06278026905829598</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0.08888888888888889</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>학생부종합(조기취업형계약학과전형)의 경우, 면접 점수와 서류 평가 점수가 각각 중요하게 고려됩니다. 특히 세특 내용은 서류평가에서 중요한 역할을 합니다.
+1. **면접 점수**: 면접에서는 지원동기, 학업역량, 전공적합성 등에 대한 질문이 주어집니다. 지원자의 답변 내용과 태도가 중요합니다.
+2. **서류 평가 (세특 내용)**: 서류평가에서 세특 내용은 학생의 전공 적합성을 판단하는 중요한 요소입니다. 세특 내용을 많이 보는 이유는 다음과 같습니다:
+   - **학업역량**: 고교 생활 중 학업에 대한 어려움과 해결 방안, 문제해결 능력 등을 설명합니다.
+   - **전공적합성**: 지원자가 어떤 교내 활동을 통해 해당 전공에 관심을 가지고 준비했는지, 관련 경험과 활동 내용 등을 설명합니다.
+**세특 내용 준비 방법:**
+1. **학업역량**: 고교 생활 중 학업에서 겪은 어려움과 이를 극복한 경험, 그리고 이를 해결하기 위해 노력한 방식을 구체적으로 작성해야 합니다.
+2. **전공적합성**: 지원자가 어떤 활동을 통해 해당 전공에 관심을 가지고 준비했는지, 관련 활동 내용, 성취감 등을 설명합니다.
+**서류 제출 시 주의사항:**
+- **진실성**: 세특 내용은 진실성을 유지해야 합니다. 허위 정보를 기재하면 합격 취소 등의 결과가 있을 수 있습니다.
+- **구체적 사례**: 구체적인 사례와 경험을 통해 자신의 능력을 입증하는 것이 중요합니다.
+**추천 준비 방법:**
+1. **사전 계획**: 지원 전공과 관련된 활동, 성취, 그리고 학업에서의 어려움 등을 미리 정리해둡니다.
+2. **구체적인 사례 작성**: 구체적인 사례를 통해 자신의 능력을 입증하는 내용을 작성합니다.
+3. **교사 의견 반영**: 가능하다면 교사의 의견이나 평가를 함께 기재하면 더 신뢰성이 높아집니다.
+이러한 준비를 통해 지원자의 전공 적합성과 학업역량을 효과적으로 보여줄 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.1284796573875803</v>
+      </c>
+      <c r="E286" t="n">
+        <v>0.03870967741935485</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0.08565310492505353</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **2024年东国大学软件工程学部的录取标准**：根据提供的信息，我们可以看到该专业的录取情况。例如：
+   - 国语 + 数学 + 探究(2个) (加权分) 标准转换分数总和的平均值为 325.15。
+   - 英语等级的平均分为 3.18。
+2. **你的成绩**：国语 + 数学 + 探究(2个) (加权分) 的标准转换分数总和是4.08，英语等级没有具体给出，但假设为平均水平（例如3.5）。
+3. **比较与分析**：
+   - 你提供的成绩（4.08）高于已知的平均值（325.15），这表明你的成绩在该专业中处于较高水平。
+   - 英语等级方面，虽然没有具体数值，但假设为平均水平3.5也略高于已知的平均值（3.18）。
+综合来看，你的成绩看起来比已知的最高录取者的分数要高。因此，在其他条件相同的情况下，你有可能被该专业录取。
+但是需要注意的是：
+- 录取结果还取决于具体的招生政策、竞争情况以及其他因素。
+- 东国大学可能会有更严格的录取标准或额外的要求。
+建议你可以参考以下步骤进行准备和申请：
+1. **详细了解最新的招生信息**：包括具体的录取分数线、加权分计算方法等。
+2. **准备充分的材料**：确保所有提交的文件准确无误，特别是成绩单和其他相关证明。
+3. **参加模拟面试**：如果需要面试的话，提前做好准备。
+综上所述，在成绩方面你有很大的机会被东国大学软件工程学部录取。建议进一步关注学校的具体招生信息并做好充分准备。</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.09302325581395349</v>
+      </c>
+      <c r="E287" t="n">
+        <v>0</v>
+      </c>
+      <c r="F287" t="n">
+        <v>0.08372093023255814</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어융합학과의 경우, 정원 외 모집인원은 7명이며, 지원 인원이 30명으로 높은 경쟁률을 보이고 있습니다. 평균적으로 서류평가와 면접평가를 종합해보면 다음과 같은 점수대가 필요할 것으로 예상됩니다:
+1. **서류평가 영역**:
+   - 공동체역량: 84점 (5등급)
+   - 학업역량: 168점 (5등급)
+   - 전공적합성: 168점 (5등급)
+2. **면접평가 영역**:
+   - 학업역량: 139.5점 (4등급)
+   - 전공적합성: 84점 (5등급)
+따라서, 평균적으로 5등급을 받는 것이 필요할 것으로 보입니다. 하지만 이는 단순히 점수만으로 판단하는 것이 아니라, 서류와 면접 모두에서 꾸준한 노력과 적절한 답변이 요구됩니다.
+**추천 조언:**
+- **서류 준비**: 학업역량과 전공적합성에 대한 구체적인 사례를 잘 준비하고, 공동체역량에서도 협력과 배려의 모습을 보여주어야 합니다.
+- **면접 준비**: 지원동기와 학업계획, 학업역량 및 전공적합성에 대해 명확하게 답변할 수 있도록 준비해야 합니다.
+이러한 점들을 고려하면 5등급으로는 충분히 경쟁력을 갖추고 있을 것으로 보입니다. 하지만 최종 결정은 입학사정관의 평가 결과에 따라 달라질 수 있으므로, 철저한 준비와 노력이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.2131979695431472</v>
+      </c>
+      <c r="E288" t="n">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="F288" t="n">
+        <v>0.1218274111675127</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>4.28이라는 영어 등급은 대략 B+ 정도로, 좋은 점수입니다. 하지만 동의대학교 신소재공학과에 입학하기 위해서는 수능 성적뿐만 아니라 전반적인 학업 역량과 전공 적합성 등을 고려해야 합니다.
+2024년도 동의대학교 신소재공학과의 최종 등록자들의 성적 분포를 보면:
+- 모집 인원: 56명
+- 지원 인원: 81명
+- 경쟁률: 1.45
+- 충원 합격 (후보순위): 25명
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 271.64였습니다.
+수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 378.15였습니다.
+이러한 데이터를 바탕으로, 4.28이라는 영어 등급만으로는 확실하게 입학할 수 있는 보장은 없습니다. 하지만 다음과 같은 요소들을 고려하면 도움이 될 수 있습니다:
+1. **전반적인 학업 성적**: 4.28의 영어 등급 외에 다른 과목들의 성적이 높다면 이점이 됩니다.
+2. **수능 점수**: 평균적으로 378.15라는 수준의 점수가 필요하므로, 수능 점수가 좋은 경우 더 유리합니다.
+3. **전공 적합성**: 신소재공학과와 관련된 활동이나 경험을 가진다면 이점이 될 수 있습니다.
+따라서 4.28이라는 영어 등급만으로는 확실한 입학 보장은 어렵지만, 전반적인 성적과 활동 경험이 좋은 경우에도 충분히 가능할 수 있습니다. 
+추가적으로, 동의대학교의 학생부 종합 평가를 고려하면, 학업 태도와 열정, 그리고 관련 활동 경험 등을 잘 보여줄 수 있다면 더 큰 기회를 얻을 수 있을 것입니다.
+결론적으로, 4.28이라는 영어 등급만으로는 확실한 입학은 어렵지만, 전반적인 성적과 활동 경험이 좋은 경우에도 충분히 가능할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.3397027600849257</v>
+      </c>
+      <c r="E289" t="n">
+        <v>0.1236673773987207</v>
+      </c>
+      <c r="F289" t="n">
+        <v>0.1571125265392782</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 수능(일반학생전형)에서는 자기소개서 제출이 필요하지 않습니다. 
+- **제출서류**: 제출서류는 없습니다 (단, 학생부 온라인 제공 동의자에 한해 학생부를 온라인으로 제공 받음).
+따라서 수능(일반학생전형)으로 지원할 때 자기소개서 작성은 필요하지 않습니다. 다만, 학생부 온라인 제공을 동의하는 경우 학생부가 함께 제출됩니다.
+자기소개서 대신, 수능 점수와 교과 성적 등이 주요 평가 요인이 될 것입니다. 따라서 수능 및 교과 성적이 뛰어나게 준비해두시는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>0.09375</v>
+      </c>
+      <c r="E290" t="n">
+        <v>0.01587301587301587</v>
+      </c>
+      <c r="F290" t="n">
+        <v>0.09375</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>4.5라는 점수는 상당히 높은 점수입니다. 하지만 추가모집에 합격할 확률을 판단하기 위해서는 몇 가지 요소를 고려해야 합니다:
+1. 모집단위와 전형방법:
+   - 인문사회과학대학, 상경대학 등에서 일반학생전형으로 지원하셨다면, 수능 점수 4.5는 충분히 경쟁력을 갖추고 있습니다.
+   - 추가모집에서도 같은 기준을 유지할 것으로 보이므로 가능성이 있습니다.
+2. 모집인원과 지원자 수:
+   - 각 모집단위의 모집인원과 실제 지원자 수를 확인해야 합니다.
+   - 지원자가 많다면 경쟁률이 높아져 합격 가능성은 낮아질 수 있습니다.
+3. 평균점수와 표준편차:
+   - 제공된 데이터에서 각 단과대학의 평균 점수와 표준편차를 확인하여, 4.5가 어느 위치에 있는지 파악해야 합니다.
+   - 예를 들어, 인문사회과학대학의 평균이 3.8이고 표준편차가 0.6이라면 4.5는 상당히 높은 점수입니다.
+4. 경쟁률:
+   - 각 모집단위별로 실제 경쟁률을 확인해야 합니다.
+   - 경쟁률이 낮다면 합격 가능성은 높아지지만, 높다면 낮아질 수 있습니다.
+5. 기타 평가 요소:
+   - 실기/실적, 면접 등 다른 평가 항목의 점수도 고려해야 합니다.
+   - 학생부 종합평가 결과도 중요한 역할을 할 수 있습니다.
+6. 추가모집 특성:
+   - 일부 대학은 추가모집에서 일반학생전형보다 더 유리한 조건을 제공하기도 합니다.
+결론적으로, 4.5라는 점수는 좋은 기반을 제공하지만, 최종 합격 여부는 여러 요소에 따라 달라질 수 있습니다. 정확한 확률을 알기 위해서는 위의 요소들을 종합적으로 고려해야 합니다. 추가모집 정보를 확인하고, 해당 대학의 공식 입학처 웹사이트나 전화로 문의하는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.3927272727272727</v>
+      </c>
+      <c r="E291" t="n">
+        <v>0.1569343065693431</v>
+      </c>
+      <c r="F291" t="n">
+        <v>0.2254545454545455</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 신소재공학과에 대한 정확한 합격 기준을 알기 위해서는 여러 요인을 고려해야 합니다. 하지만 일반적으로 수능 성적, 모집단위 및 전형 방식 등을 바탕으로 추정할 수 있습니다.
+신소재공학과는 ICT융합공과대학의 일부로, 정시모집에서는 주로 수능 성적이 중요한 역할을 합니다. 2024년도 동의대학교의 경우, 수능 반영 영역은 국어(화법과작문 또는 언어와매체), 수학(확률과통계 또는 미적분 또는 기하), 영어, 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합)이며 각 영역은 25%씩 반영됩니다.
+신소재공학과와 유사한 전공 분야를 가진 다른 대학의 경우, 일반적으로 수능 성적은 다음과 같습니다:
+- 국어: 4등급 이상
+- 수학: 미적분 또는 기하 중 하나에서 3등급 이상
+- 영어: 4등급 이상 (특정 모집단위에서는 5등급이 요구될 수도 있음)
+- 탐구 과목: 사회탐구 또는 과학탐구 중 2개 과목을 선택하여 각각 3등급 이상
+이러한 기준을 고려하면, 신소재공학과에 합격하기 위해서는 다음과 같은 수능 성적을 갖추어야 할 것으로 추정됩니다:
+- 국어: 4등급
+- 수학: 미적분 또는 기하 중 하나에서 3등급 이상
+- 영어: 4등급 이상
+- 탐구 과목: 사회탐구 또는 과학탐구 중 2개 과목을 선택하여 각각 3등급 이상
+이러한 성적이 기본적인 수준이며, 경쟁률과 모집인원 등을 고려하면 더 높은 등급을 갖추는 것이 유리할 것입니다. 하지만 정확한 합격 기준은 매년 변동될 수 있으므로, 최신 정보를 확인하기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하는 것이 가장 좋습니다.
+https://ipsi.deu.ac.kr/main.do
+이 링크를 통해 더 자세한 정보를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.1400966183574879</v>
+      </c>
+      <c r="E292" t="n">
+        <v>0.01941747572815534</v>
+      </c>
+      <c r="F292" t="n">
+        <v>0.09178743961352656</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2023년 동의대학교 정시에서 신소재공학과의 최종 평균 점수가 448점으로 작년에 비해 약간 높았다면, 이는 다음과 같은 요인들로 인한 가능성입니다:
+1. 경쟁률 변화: 작년보다 지원자가 더 많아져 경쟁률이 상승했을 가능성이 있습니다.
+2. 수능 성적 변동: 전체 지원자의 수능 성적이 약간 높아졌다면 평균 점수가 상승할 수 있습니다.
+3. 모집인원 변화: 작년보다 모집 인원이 줄어들었을 경우, 같은 수의 합격자를 선발하려면 더 높은 점수를 요구해야 했습니다.
+4. 충원 합격자 성적 변동: 작년보다 충원 합격자의 평균 성적이 높아졌다면 이에 영향을 받을 수 있습니다.
+5. 입학사정관 심사 결과: 일부 지원자가 더 우수한 서류평가나 면접 점수를 얻어 선발되었을 수도 있습니다.
+6. 전형 요소 비중 변화: 작년과 비교해 서류평가, 면접 등 다른 평가 요인의 비중이 달라졌다면 이에 따라 결과가 변동될 수 있습니다.
+따라서 447점으로 환산된 점수가 작년보다 약간 낮은 경우에도 최종 평균 점수가 448점으로 높게 나올 가능성이 있습니다. 하지만 확실한 예측은 어렵고, 실제 결과는 여러 요인에 따라 달라질 수 있으므로 정확한 정보를 얻기 위해서는 동의대학교 입학처나 공식 홈페이지를 확인하는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.2389937106918239</v>
+      </c>
+      <c r="E293" t="n">
+        <v>0.05063291139240506</v>
+      </c>
+      <c r="F293" t="n">
+        <v>0.1572327044025157</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>4.3등급대의 성적이 예상대로 4.1~4.2등급으로 산출된다면, 신소재공학과의 경우 다음과 같은 점들을 고려해야 합니다:
+1. **전형방법**: 
+   - 일반학생전형은 주로 수능성적을 기준으로 합니다.
+   - 2024년도에 신소재공학과는 전형요소 반영비율이 수능 25% + 탐구 25% + 영어 25% + 학교생활기록부 25%로 구성되어 있습니다.
+2. **수능성적**:
+   - 국어, 수학, 영어 등급은 중요합니다.
+   - 특히 수학과 영어는 신소재공학과에서 중요한 역할을 합니다.
+3. **등급대비 선발인원**:
+   - 4.1~4.2등급의 성적은 경쟁률이 높을 가능성이 있습니다.
+   - 지원 인원과 모집인원에 따라 실제 합격 가능성은 다를 수 있습니다.
+4. **추천사항**:
+   - **수능성적 향상**: 마지막 기회라도 수능 공부를 더 열심히 해보세요. 특히 수학과 영어는 점수를 높이는 데 집중할 필요가 있습니다.
+   - **학교생활기록부 작성**: 학교생활기록부에서 긍정적인 활동이나 성과를 잘 기재해 보세요. 이 부분은 서류평가에서 중요한 역할을 합니다.
+   - **면접 준비**: 면접에서도 자신의 열정과 전공적합성을 잘 표현해야 합니다.
+5. **예상 경쟁률**:
+   - 2024년도 신소재공학과의 모집인원은 32명이고, 지원 인원이 많을 것으로 예상됩니다.
+   - 예를 들어, 지원 인원이 100명이라면, 선발 가능 인원(32명)에 비해 경쟁률이 높아질 수 있습니다.
+결론적으로, 4.1~4.2등급의 성적은 신소재공학과에서 합격하기 어렵지 않지만, 경쟁률이 높고 지원 인원이 많을 경우 낮은 확률일 수도 있습니다. 마지막까지 최선을 다해 준비하고, 가능하다면 추가로 수능 공부를 하여 성적을 향상시키는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.2932862190812721</v>
+      </c>
+      <c r="E294" t="n">
+        <v>0.06737588652482271</v>
+      </c>
+      <c r="F294" t="n">
+        <v>0.1413427561837456</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과의 수능 일반학생전형에 대한 최종 등록자들의 성적을 살펴보면 다음과 같습니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 403.85
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차**: 15.55
+- **영어 등급의 평균**: 4.53
+- **영어 등급의 표준 편차**: 0.80
+- **수능 4개 영역 등급의 평균**: 5.25
+- **수능 4개 영역 등급의 표준 편차**: 0.35
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균**: 403.85
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 표준 편차**: 15.55
+이러한 성적을 바탕으로, 동의대학교 인공지능학과 수능 일반학생전형에 지원하려는 경우 다음과 같은 준비를 해보시면 좋을 것 같습니다:
+1. **국어와 수학** : 평균 점수가 높은 만큼 꾸준한 학습이 필요합니다.
+2. **영어** : 등급과 표준 변환 점수 모두 좋은 성적을 보였으므로, 영어 실력을 향상시키는 것이 중요합니다.
+3. **탐구 과목** : 평균 5.25의 등급을 보였으니, 탐구 과목 중에서 자신이 취약한 부분을 찾아서 집중적으로 공부해보세요.
+또한, 동의대학교의 수능 전형성적 산출방법은 다음과 같습니다:
+- **수능 4개 영역(국어, 수학, 영어, 탐구) 중 표준점수 및 등급점수 상위 3개 영역의 표준점수 및 등급점수를 합산한 점수 ÷ 2**
+따라서, 이 방법을 참고하여 자신의 성적을 분석하고 준비하시면 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.4521384928716904</v>
+      </c>
+      <c r="E295" t="n">
+        <v>0.2862985685071575</v>
+      </c>
+      <c r="F295" t="n">
+        <v>0.3421588594704684</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>5.27이라는 성적을 가지고 동의대학교에 정시로 지원하려는 경우, 지원 가능성이 있습니다만, 확실한 것은 아닙니다. 이유는 다음과 같습니다:
+1. **단과대학 및 모집단위**: 지원하고자 하는 단과대학과 모집단위를 확인해야 합니다. 예를 들어, 인문사회과학대학의 경쟁률이 상경대학보다 높을 수 있습니다.
+2. **모집인원 및 지원인원**: 각 모집단위별로 정원 내외 모집인원과 지원인원이 다르므로, 이에 따라 경쟁률이 달라질 수 있습니다.
+3. **전형 유형**: 학생부종합, 수능(일반학생전형), 실기/실적 등 다양한 전형이 있으므로, 해당 전형의 평균 성적과 비교해야 합니다.
+4. **개인별 경쟁력**: 개인의 특성, 서류평가 결과, 면접 성적 등을 고려해야 합니다.
+5. **최종등록자 성적 분포**: 제공된 최종등록자 성적 데이터를 참고하면, 예를 들어 인문사회과학대학 사회복지학과의 경우 평균 국어+수학+탐구(2개) 표준 변환 점수 합이 420.29였습니다. 이보다 낮은 성적이더라도, 개인적인 특성이나 서류평가 등에서 우수한 점을 보여주면 가능성이 있습니다.
+따라서, 정확한 답변을 위해서는 구체적으로 어떤 단과대학과 모집단위를 지원하려는지, 그리고 해당 전형의 평균 성적과 비교해볼 필요가 있습니다. 더 자세한 정보나 조언이 필요하시다면, 동의대학교 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하거나 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.1780929866036249</v>
+      </c>
+      <c r="E296" t="n">
+        <v>0.05682715074980269</v>
+      </c>
+      <c r="F296" t="n">
+        <v>0.09613869188337273</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>4.2라는 수능 등급은 상당히 높은 점수입니다. 이 점수를 가지고 소프테이션공학부에 지원하는 것은 가능성이 있지만, 확률을 높이기 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. **전형방법**: 동의대학교 소프트웨어공학부는 주로 수능 성적과 학생부를 종합적으로 평가합니다. 따라서 수능 점수가 높은 것은 큰 장점이 됩니다.
+2. **학생부 성적**: 교과성적이 중요하므로, 고등학교에서의 과목별 성적이 좋게 나와야 합니다. 특히 수학과 영어 등 관련 과목의 성적이 뛰어나면 더 좋습니다.
+3. **추천서 및 자기소개서**: 이 부분도 중요합니다. 추천서는 교사의 평가를 받고, 자기소개서에서는 자신의 열정과 목표를 잘 표현해야 합니다.
+4. **면접 준비**: 면접에서도 좋은 성적을 보여주어야 합니다. 관련 전공에 대한 이해와 관심을 잘 나타내야 합니다.
+5. **추천사**: 가능하다면 학교나 교사로부터의 추천서가 있다면 유리할 수 있습니다.
+6. **경쟁률**: 소프트웨어공학부는 인기 있는 학과이므로 경쟁률이 높을 수 있습니다. 따라서 최선을 다해 준비해야 합니다.
+결론적으로, 4.2라는 수능 등급은 좋은 성적입니다만, 다른 요소들도 잘 준비하고 지원해야 합니다. 꾸준한 노력과 체계적인 준비를 통해 가능성을 높일 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.2228739002932552</v>
+      </c>
+      <c r="E297" t="n">
+        <v>0.05899705014749262</v>
+      </c>
+      <c r="F297" t="n">
+        <v>0.1055718475073314</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **科目成绩**：您提到的3.92是综合成绩。通常，东义大学在计算综合成绩时会参考国语、数学（选择性科目）、英语和科学等科目的标准分或等级。
+2. **科目要求**：
+   - 化学环境工程部的一般学生招生通常需要一定的科目成绩。
+   - 一般情况下，化学相关的科目如化学、物理等可能会有较高的要求。
+3. **综合评价**：除了具体科目成绩外，还需要考虑其他因素，比如学生的整体表现、面试表现（如果有的话）以及个人陈述等。
+4. **参考往年数据**：
+   - 根据您提供的信息，化学环境工程部的一般学生招生的录取分数线通常在3.85-4.0之间。
+   - 您的成绩3.92接近这个范围，但具体是否能够被录取还需要考虑其他因素。
+综上所述，您的成绩3.92是有可能申请到东义大学化学环境工程部的一般学生的。但是，最终能否录取还需结合具体的科目要求和个人表现等因素综合判断。建议您详细查看该专业的招生简章，并咨询学校的具体要求和流程。</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.1044776119402985</v>
+      </c>
+      <c r="E298" t="n">
+        <v>0</v>
+      </c>
+      <c r="F298" t="n">
+        <v>0.08955223880597016</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 화학환경공학과는 수능(일반학생전형)을 통해 지원할 수 있습니다. 아래 정보를 참고하시면 도움이 될 것입니다:
+1. **수능 반영방법**:
+   - 국어 + 수학 + 탐구 (2개 과목) 표준 변환 점수 합 75% 반영
+   - 영어 등급 25% 반영
+2. **성적 기준**:
+   - 4.25는 수능 4개 영역 등급 중 상위 3개 영역의 평균 등급입니다.
+   - 화학환경공학과는 공과대학에 속하므로, 수능 반영방법은 공과대학과 동일합니다.
+3. **성적 산출방법**:
+   - 국어 + 수학 + 탐구 (2개 과목) 표준 변환 점수 합의 평균이 400점 이상이어야 합니다.
+   - 영어 등급이 5등급 이상이어야 합니다.
+4. **경쟁률 및 지원자 분석**:
+   - 화학공학과, 환경공학과, 응용화학과는 각각 모집인원이 다르므로 경쟁률을 고려해야 합니다.
+   - 예를 들어, 화학공학과의 경우 모집 인원 43명에 지원 인원 102명으로 높은 경쟁률을 보이고 있습니다.
+5. **추천사항**:
+   - 수능 성적을 확인하고, 해당 학과의 모집인원과 지원 인원을 비교하여 경쟁률을 파악하세요.
+   - 추가적으로 영어 등급도 중요하므로 4등급 이상이 되도록 노력해보세요.
+6. **기타 정보**:
+   - 실기고사는 필요하지 않으므로, 수능 성적만으로 지원 가능합니다.
+   - 동점자 처리 기준을 확인하여 자신이 어떤 순위에 위치하는지 파악하세요.
+따라서 4.25의 등급은 화학환경공학과를 지원할 수 있는 범위 내에 있습니다. 하지만 경쟁률 등을 고려하여 최종 결정하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.3073394495412844</v>
+      </c>
+      <c r="E299" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="F299" t="n">
+        <v>0.2293577981651376</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>4.2 등급의 성적은 영화학과의 경쟁률을 고려할 때 상당히 낮은 점수입니다. 영화학과는 예체능 분야로, 실기와 창의성도 중요하게 평가받습니다.
+현재 제공된 정보만으로는 정확한 합격 여부를 판단하기 어렵지만, 다음과 같은 요소들을 고려해볼 수 있습니다:
+1. **정시 성적**: 4.2 등급은 상대적으로 낮은 점수입니다. 평균적인 경쟁률을 감안하면 이 점수로 합격하기는 어려울 가능성이 높습니다.
+2. **실기 및 창의성**: 영화학과에서는 실기 성적뿐만 아니라 창의성, 작품 등이 중요하게 평가됩니다. 따라서 실기고사나 포트폴리오 등의 성적이 좋다면 이점은 크게 작용할 수 있습니다.
+3. **전형별 특징**:
+   - **학생부종합(평생학습자/성인학습자/재직자 전형)**: 이들 전형에서는 학업역량, 전공적합성 등이 중요합니다.
+   - **수능 위주 전형**: 수능 점수가 주요 평가 기준입니다. 4.2는 낮은 점수로 경쟁률을 고려하면 불리할 가능성이 큽니다.
+4. **동점자 처리기준**: 동점자 처리에서는 수능 국어, 수학 등이 중요하게 작용합니다. 따라서 이 부분에서도 높은 점수가 유리합니다.
+5. **추천서 및 자기소개서**: 추천서나 자기소개서에서 창의성과 열정을 잘 표현한다면 이를 통해 합격 가능성도 높일 수 있습니다.
+결론적으로, 4.2 등급으로는 영화학과에 합격하기 어렵다고 판단됩니다. 실기 성적이나 포트폴리오가 매우 우수하다면 이 부분에서 강점을 보여줄 수 있지만, 일반적인 경쟁률을 고려하면 낮은 점수로는 어려울 것으로 예상됩니다.
+추천 드리는 방법:
+- **포트폴리오 준비**: 작품이나 프로젝트를 잘 준비하고 제출합니다.
+- **추천서 및 자기소개서 작성**: 창의성과 열정을 잘 표현하는 내용으로 작성합니다.
+- **면접 준비**: 면접에서도 창의성과 전공적합성을 잘 보여줄 수 있도록 준비합니다.
+더 자세한 정보나 도움이 필요하시다면 학교 입학처 또는 관련 컨설팅 서비스를 이용해보시는 것도 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.2152133580705009</v>
+      </c>
+      <c r="E300" t="n">
+        <v>0.0633147113594041</v>
+      </c>
+      <c r="F300" t="n">
+        <v>0.1150278293135436</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인 
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+이 절차는 모든 면접 형태에 적용되며, 개별면접이나 블라인드 면접 등 구체적인 면접 형식에 따라 세부 사항은 다를 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="E301" t="n">
+        <v>0.8045977011494253</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.8181818181818181</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>GPT-4o-mini Average</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.4222776267739863</v>
+      </c>
+      <c r="E302" t="n">
+        <v>0.2877355726234804</v>
+      </c>
+      <c r="F302" t="n">
+        <v>0.3722149100047927</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Google Gemma-2-9b-it Average</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.2862687847032409</v>
+      </c>
+      <c r="E303" t="n">
+        <v>0.1303105983504895</v>
+      </c>
+      <c r="F303" t="n">
+        <v>0.2238578460551425</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct Average</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.3054996581761562</v>
+      </c>
+      <c r="E304" t="n">
+        <v>0.1671316205518044</v>
+      </c>
+      <c r="F304" t="n">
+        <v>0.2444895419945785</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
           <t>Total Average</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>0.3542732057386135</v>
-      </c>
-      <c r="E204" t="n">
-        <v>0.2090230854869849</v>
-      </c>
-      <c r="F204" t="n">
-        <v>0.2980363780299676</v>
+      <c r="D305" t="n">
+        <v>0.3380153565511277</v>
+      </c>
+      <c r="E305" t="n">
+        <v>0.1950592638419248</v>
+      </c>
+      <c r="F305" t="n">
+        <v>0.2801874326848379</v>
       </c>
     </row>
   </sheetData>
